--- a/models/BERTATT2ITM/restaurants/gijon/c548c5687b54d0685d7aa823de110acb/att_text_587535980.xlsx
+++ b/models/BERTATT2ITM/restaurants/gijon/c548c5687b54d0685d7aa823de110acb/att_text_587535980.xlsx
@@ -513,28 +513,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.006862640380859375</v>
+        <v>0.156494140625</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.00421142578125</v>
+        <v>0.1474609375</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.00421142578125</v>
+        <v>0.1474609375</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00579071044921875</v>
+        <v>0.1591796875</v>
       </c>
       <c r="F3" t="n">
-        <v>0.007568359375</v>
+        <v>0.15380859375</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004413604736328125</v>
+        <v>0.147705078125</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00714874267578125</v>
+        <v>0.1573486328125</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.00287628173828125</v>
+        <v>0.1484375</v>
       </c>
     </row>
     <row r="4">
@@ -544,28 +544,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00873565673828125</v>
+        <v>-0.0860595703125</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.001392364501953125</v>
+        <v>-0.0860595703125</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.001392364501953125</v>
+        <v>-0.0860595703125</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00951385498046875</v>
+        <v>-0.08447265625</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007259368896484375</v>
+        <v>-0.0855712890625</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001358985900878906</v>
+        <v>-0.0867919921875</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01026153564453125</v>
+        <v>-0.08551025390625</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0007195472717285156</v>
+        <v>-0.085693359375</v>
       </c>
     </row>
     <row r="5">
@@ -575,28 +575,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05950927734375</v>
+        <v>-0.11083984375</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.07952880859375</v>
+        <v>-0.11492919921875</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.07952880859375</v>
+        <v>-0.11492919921875</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0560302734375</v>
+        <v>-0.1080322265625</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0634765625</v>
+        <v>-0.11065673828125</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.07855224609375</v>
+        <v>-0.115234375</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0565185546875</v>
+        <v>-0.1094970703125</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.08282470703125</v>
+        <v>-0.1158447265625</v>
       </c>
     </row>
     <row r="6">
@@ -606,28 +606,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0265045166015625</v>
+        <v>0.177734375</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0288543701171875</v>
+        <v>0.1724853515625</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0288543701171875</v>
+        <v>0.1724853515625</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.026153564453125</v>
+        <v>0.178955078125</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.026519775390625</v>
+        <v>0.1793212890625</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0281982421875</v>
+        <v>0.17822265625</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0263671875</v>
+        <v>0.179443359375</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0311431884765625</v>
+        <v>0.1717529296875</v>
       </c>
     </row>
     <row r="7">
@@ -637,28 +637,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.128662109375</v>
+        <v>-0.069091796875</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.12139892578125</v>
+        <v>-0.06671142578125</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.12139892578125</v>
+        <v>-0.06671142578125</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.126708984375</v>
+        <v>-0.07061767578125</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1300048828125</v>
+        <v>-0.06781005859375</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1309814453125</v>
+        <v>-0.067626953125</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.1300048828125</v>
+        <v>-0.0709228515625</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.135498046875</v>
+        <v>-0.06793212890625</v>
       </c>
     </row>
     <row r="8">
@@ -668,28 +668,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0777587890625</v>
+        <v>0.03289794921875</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.06634521484375</v>
+        <v>0.0499267578125</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.06634521484375</v>
+        <v>0.0499267578125</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0799560546875</v>
+        <v>0.03753662109375</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.07635498046875</v>
+        <v>0.03424072265625</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0684814453125</v>
+        <v>0.0360107421875</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.080078125</v>
+        <v>0.036865234375</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.06793212890625</v>
+        <v>0.040130615234375</v>
       </c>
     </row>
     <row r="9">
@@ -699,28 +699,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.024749755859375</v>
+        <v>0.0535888671875</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.033294677734375</v>
+        <v>0.04425048828125</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.033294677734375</v>
+        <v>0.04425048828125</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.029083251953125</v>
+        <v>0.052978515625</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.02398681640625</v>
+        <v>0.05267333984375</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.018707275390625</v>
+        <v>0.049835205078125</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.02783203125</v>
+        <v>0.0545654296875</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0194244384765625</v>
+        <v>0.049285888671875</v>
       </c>
     </row>
     <row r="10">
@@ -730,28 +730,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.08135986328125</v>
+        <v>-0.029937744140625</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.076904296875</v>
+        <v>-0.03173828125</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.076904296875</v>
+        <v>-0.03173828125</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.0809326171875</v>
+        <v>-0.03021240234375</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.08013916015625</v>
+        <v>-0.029022216796875</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0802001953125</v>
+        <v>-0.027587890625</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.080322265625</v>
+        <v>-0.03082275390625</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.07916259765625</v>
+        <v>-0.029327392578125</v>
       </c>
     </row>
     <row r="11">
@@ -761,28 +761,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0252685546875</v>
+        <v>0.1312255859375</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.031158447265625</v>
+        <v>0.126953125</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.031158447265625</v>
+        <v>0.126953125</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.026702880859375</v>
+        <v>0.12646484375</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.024993896484375</v>
+        <v>0.127685546875</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0266876220703125</v>
+        <v>0.1317138671875</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.0272369384765625</v>
+        <v>0.1282958984375</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.0284576416015625</v>
+        <v>0.130126953125</v>
       </c>
     </row>
     <row r="12">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0208740234375</v>
+        <v>-0.11041259765625</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.023101806640625</v>
+        <v>-0.11199951171875</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.023101806640625</v>
+        <v>-0.11199951171875</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.019744873046875</v>
+        <v>-0.109130859375</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0211181640625</v>
+        <v>-0.10791015625</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0259552001953125</v>
+        <v>-0.1077880859375</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.0182647705078125</v>
+        <v>-0.1097412109375</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.025970458984375</v>
+        <v>-0.11053466796875</v>
       </c>
     </row>
     <row r="13">
@@ -823,28 +823,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.033599853515625</v>
+        <v>-0.12060546875</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04644775390625</v>
+        <v>-0.1290283203125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04644775390625</v>
+        <v>-0.1290283203125</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0310821533203125</v>
+        <v>-0.1221923828125</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04638671875</v>
+        <v>-0.118408203125</v>
       </c>
       <c r="G13" t="n">
-        <v>0.055694580078125</v>
+        <v>-0.12310791015625</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0298309326171875</v>
+        <v>-0.12164306640625</v>
       </c>
       <c r="I13" t="n">
-        <v>0.047119140625</v>
+        <v>-0.126953125</v>
       </c>
     </row>
     <row r="14">
@@ -854,28 +854,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.002590179443359375</v>
+        <v>0.0163726806640625</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003774642944335938</v>
+        <v>0.020538330078125</v>
       </c>
       <c r="D14" t="n">
-        <v>0.003774642944335938</v>
+        <v>0.020538330078125</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.001293182373046875</v>
+        <v>0.01541900634765625</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002588272094726562</v>
+        <v>0.0175628662109375</v>
       </c>
       <c r="G14" t="n">
-        <v>0.001120567321777344</v>
+        <v>0.018646240234375</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001336097717285156</v>
+        <v>0.015869140625</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.00038909912109375</v>
+        <v>0.0194091796875</v>
       </c>
     </row>
     <row r="15">
@@ -885,28 +885,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.08856201171875</v>
+        <v>0.1795654296875</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08123779296875</v>
+        <v>0.1949462890625</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08123779296875</v>
+        <v>0.1949462890625</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08905029296875</v>
+        <v>0.179931640625</v>
       </c>
       <c r="F15" t="n">
-        <v>0.087646484375</v>
+        <v>0.180908203125</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08782958984375</v>
+        <v>0.1832275390625</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08892822265625</v>
+        <v>0.1810302734375</v>
       </c>
       <c r="I15" t="n">
-        <v>0.085205078125</v>
+        <v>0.185791015625</v>
       </c>
     </row>
     <row r="16">
@@ -916,28 +916,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1007080078125</v>
+        <v>-0.001254081726074219</v>
       </c>
       <c r="C16" t="n">
-        <v>0.093994140625</v>
+        <v>0.007076263427734375</v>
       </c>
       <c r="D16" t="n">
-        <v>0.093994140625</v>
+        <v>0.007076263427734375</v>
       </c>
       <c r="E16" t="n">
-        <v>0.10491943359375</v>
+        <v>-0.0003213882446289062</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09814453125</v>
+        <v>-0.001766204833984375</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09576416015625</v>
+        <v>0.0001245737075805664</v>
       </c>
       <c r="H16" t="n">
-        <v>0.10260009765625</v>
+        <v>-0.002155303955078125</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09515380859375</v>
+        <v>-0.0002090930938720703</v>
       </c>
     </row>
     <row r="17">
@@ -947,28 +947,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.048492431640625</v>
+        <v>-0.09552001953125</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04522705078125</v>
+        <v>-0.08416748046875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.04522705078125</v>
+        <v>-0.08416748046875</v>
       </c>
       <c r="E17" t="n">
-        <v>0.050201416015625</v>
+        <v>-0.09356689453125</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0474853515625</v>
+        <v>-0.09423828125</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04736328125</v>
+        <v>-0.09307861328125</v>
       </c>
       <c r="H17" t="n">
-        <v>0.049957275390625</v>
+        <v>-0.09515380859375</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04400634765625</v>
+        <v>-0.089599609375</v>
       </c>
     </row>
     <row r="18">
@@ -978,28 +978,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0782470703125</v>
+        <v>-0.1630859375</v>
       </c>
       <c r="C18" t="n">
-        <v>0.065185546875</v>
+        <v>-0.161376953125</v>
       </c>
       <c r="D18" t="n">
-        <v>0.065185546875</v>
+        <v>-0.161376953125</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0770263671875</v>
+        <v>-0.1650390625</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0765380859375</v>
+        <v>-0.1636962890625</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07110595703125</v>
+        <v>-0.15966796875</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0760498046875</v>
+        <v>-0.1634521484375</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0697021484375</v>
+        <v>-0.1650390625</v>
       </c>
     </row>
     <row r="19">
@@ -1009,28 +1009,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.05792236328125</v>
+        <v>0.044281005859375</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.061737060546875</v>
+        <v>0.04949951171875</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.061737060546875</v>
+        <v>0.04949951171875</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.058868408203125</v>
+        <v>0.0455322265625</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.059112548828125</v>
+        <v>0.04437255859375</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.062744140625</v>
+        <v>0.04595947265625</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.057952880859375</v>
+        <v>0.04534912109375</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.0643310546875</v>
+        <v>0.04437255859375</v>
       </c>
     </row>
     <row r="20">
@@ -1040,28 +1040,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.00936126708984375</v>
+        <v>0.209716796875</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0036773681640625</v>
+        <v>0.206298828125</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0036773681640625</v>
+        <v>0.206298828125</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01026153564453125</v>
+        <v>0.2110595703125</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01026153564453125</v>
+        <v>0.2120361328125</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01062774658203125</v>
+        <v>0.2100830078125</v>
       </c>
       <c r="H20" t="n">
-        <v>0.010894775390625</v>
+        <v>0.2122802734375</v>
       </c>
       <c r="I20" t="n">
-        <v>0.002857208251953125</v>
+        <v>0.2041015625</v>
       </c>
     </row>
     <row r="21">
@@ -1071,28 +1071,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.10626220703125</v>
+        <v>0.049652099609375</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.11090087890625</v>
+        <v>0.043731689453125</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.11090087890625</v>
+        <v>0.043731689453125</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.10858154296875</v>
+        <v>0.048675537109375</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.107666015625</v>
+        <v>0.04998779296875</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1077880859375</v>
+        <v>0.048095703125</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.10540771484375</v>
+        <v>0.048797607421875</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.10809326171875</v>
+        <v>0.046142578125</v>
       </c>
     </row>
     <row r="22">
@@ -1102,28 +1102,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.006237030029296875</v>
+        <v>-0.150634765625</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.015838623046875</v>
+        <v>-0.1507568359375</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.015838623046875</v>
+        <v>-0.1507568359375</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.00836944580078125</v>
+        <v>-0.14990234375</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0054931640625</v>
+        <v>-0.150146484375</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.00403594970703125</v>
+        <v>-0.148193359375</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.00757598876953125</v>
+        <v>-0.149658203125</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.00635528564453125</v>
+        <v>-0.1475830078125</v>
       </c>
     </row>
     <row r="23">
@@ -1133,28 +1133,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.041015625</v>
+        <v>0.0877685546875</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.0302886962890625</v>
+        <v>0.08526611328125</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0302886962890625</v>
+        <v>0.08526611328125</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.041656494140625</v>
+        <v>0.089111328125</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.040008544921875</v>
+        <v>0.08648681640625</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.03704833984375</v>
+        <v>0.084228515625</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.04241943359375</v>
+        <v>0.08721923828125</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.033050537109375</v>
+        <v>0.08599853515625</v>
       </c>
     </row>
     <row r="24">
@@ -1164,28 +1164,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.02899169921875</v>
+        <v>-0.1717529296875</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.03076171875</v>
+        <v>-0.1707763671875</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.03076171875</v>
+        <v>-0.1707763671875</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.02996826171875</v>
+        <v>-0.16943359375</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0288848876953125</v>
+        <v>-0.17333984375</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.0303192138671875</v>
+        <v>-0.1766357421875</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.0287933349609375</v>
+        <v>-0.1710205078125</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.03363037109375</v>
+        <v>-0.1717529296875</v>
       </c>
     </row>
     <row r="25">
@@ -1195,28 +1195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.0723876953125</v>
+        <v>-0.202880859375</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.071044921875</v>
+        <v>-0.207275390625</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.071044921875</v>
+        <v>-0.207275390625</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.0760498046875</v>
+        <v>-0.20458984375</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.07159423828125</v>
+        <v>-0.201904296875</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.06561279296875</v>
+        <v>-0.201171875</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.07525634765625</v>
+        <v>-0.2027587890625</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.06707763671875</v>
+        <v>-0.2056884765625</v>
       </c>
     </row>
     <row r="26">
@@ -1226,28 +1226,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.05096435546875</v>
+        <v>0.03070068359375</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0386962890625</v>
+        <v>0.033416748046875</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0386962890625</v>
+        <v>0.033416748046875</v>
       </c>
       <c r="E26" t="n">
-        <v>0.05047607421875</v>
+        <v>0.0296173095703125</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04644775390625</v>
+        <v>0.03253173828125</v>
       </c>
       <c r="G26" t="n">
-        <v>0.039337158203125</v>
+        <v>0.03521728515625</v>
       </c>
       <c r="H26" t="n">
-        <v>0.050537109375</v>
+        <v>0.0281829833984375</v>
       </c>
       <c r="I26" t="n">
-        <v>0.03448486328125</v>
+        <v>0.0382080078125</v>
       </c>
     </row>
     <row r="27">
@@ -1257,28 +1257,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0172119140625</v>
+        <v>0.029205322265625</v>
       </c>
       <c r="C27" t="n">
-        <v>0.017547607421875</v>
+        <v>0.0268402099609375</v>
       </c>
       <c r="D27" t="n">
-        <v>0.017547607421875</v>
+        <v>0.0268402099609375</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0175018310546875</v>
+        <v>0.02734375</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01552581787109375</v>
+        <v>0.0286712646484375</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01430511474609375</v>
+        <v>0.0295562744140625</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01904296875</v>
+        <v>0.028106689453125</v>
       </c>
       <c r="I27" t="n">
-        <v>0.014129638671875</v>
+        <v>0.0300750732421875</v>
       </c>
     </row>
     <row r="28">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.007610321044921875</v>
+        <v>-0.0107574462890625</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.016815185546875</v>
+        <v>-0.0165557861328125</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.016815185546875</v>
+        <v>-0.0165557861328125</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.008026123046875</v>
+        <v>-0.006565093994140625</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.00910186767578125</v>
+        <v>-0.01018524169921875</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.01308441162109375</v>
+        <v>-0.01323699951171875</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.0081787109375</v>
+        <v>-0.008514404296875</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.019073486328125</v>
+        <v>-0.014190673828125</v>
       </c>
     </row>
     <row r="29">
@@ -1319,28 +1319,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.1373291015625</v>
+        <v>-0.0643310546875</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.1302490234375</v>
+        <v>-0.06976318359375</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1302490234375</v>
+        <v>-0.06976318359375</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.13916015625</v>
+        <v>-0.063232421875</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.136474609375</v>
+        <v>-0.0635986328125</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1336669921875</v>
+        <v>-0.061676025390625</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.1395263671875</v>
+        <v>-0.06597900390625</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1336669921875</v>
+        <v>-0.06109619140625</v>
       </c>
     </row>
     <row r="30">
@@ -1350,28 +1350,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.041046142578125</v>
+        <v>0.11761474609375</v>
       </c>
       <c r="C30" t="n">
-        <v>0.053863525390625</v>
+        <v>0.11761474609375</v>
       </c>
       <c r="D30" t="n">
-        <v>0.053863525390625</v>
+        <v>0.11761474609375</v>
       </c>
       <c r="E30" t="n">
-        <v>0.038482666015625</v>
+        <v>0.11700439453125</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04302978515625</v>
+        <v>0.116455078125</v>
       </c>
       <c r="G30" t="n">
-        <v>0.049285888671875</v>
+        <v>0.11590576171875</v>
       </c>
       <c r="H30" t="n">
-        <v>0.039093017578125</v>
+        <v>0.1163330078125</v>
       </c>
       <c r="I30" t="n">
-        <v>0.052276611328125</v>
+        <v>0.115478515625</v>
       </c>
     </row>
     <row r="31">
@@ -1381,28 +1381,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.105712890625</v>
+        <v>-0.04656982421875</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.09765625</v>
+        <v>-0.03692626953125</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.09765625</v>
+        <v>-0.03692626953125</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.10443115234375</v>
+        <v>-0.04364013671875</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.10565185546875</v>
+        <v>-0.04473876953125</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.0992431640625</v>
+        <v>-0.04193115234375</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.1060791015625</v>
+        <v>-0.04498291015625</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.09619140625</v>
+        <v>-0.039093017578125</v>
       </c>
     </row>
     <row r="32">
@@ -1412,28 +1412,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1162109375</v>
+        <v>0.156982421875</v>
       </c>
       <c r="C32" t="n">
-        <v>0.109130859375</v>
+        <v>0.1558837890625</v>
       </c>
       <c r="D32" t="n">
-        <v>0.109130859375</v>
+        <v>0.1558837890625</v>
       </c>
       <c r="E32" t="n">
-        <v>0.11553955078125</v>
+        <v>0.1563720703125</v>
       </c>
       <c r="F32" t="n">
-        <v>0.11627197265625</v>
+        <v>0.1566162109375</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1168212890625</v>
+        <v>0.157470703125</v>
       </c>
       <c r="H32" t="n">
-        <v>0.11602783203125</v>
+        <v>0.15576171875</v>
       </c>
       <c r="I32" t="n">
-        <v>0.11279296875</v>
+        <v>0.1590576171875</v>
       </c>
     </row>
     <row r="33">
@@ -1443,28 +1443,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.1392822265625</v>
+        <v>-0.34130859375</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.12384033203125</v>
+        <v>-0.337646484375</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.12384033203125</v>
+        <v>-0.337646484375</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.1380615234375</v>
+        <v>-0.340087890625</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.1405029296875</v>
+        <v>-0.3408203125</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.1365966796875</v>
+        <v>-0.34326171875</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.1395263671875</v>
+        <v>-0.33984375</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.1326904296875</v>
+        <v>-0.343994140625</v>
       </c>
     </row>
     <row r="34">
@@ -1474,28 +1474,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.037994384765625</v>
+        <v>-0.0160369873046875</v>
       </c>
       <c r="C34" t="n">
-        <v>0.03680419921875</v>
+        <v>-0.0165863037109375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.03680419921875</v>
+        <v>-0.0165863037109375</v>
       </c>
       <c r="E34" t="n">
-        <v>0.037445068359375</v>
+        <v>-0.01427459716796875</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0391845703125</v>
+        <v>-0.01511383056640625</v>
       </c>
       <c r="G34" t="n">
-        <v>0.03912353515625</v>
+        <v>-0.0176849365234375</v>
       </c>
       <c r="H34" t="n">
-        <v>0.03759765625</v>
+        <v>-0.01561737060546875</v>
       </c>
       <c r="I34" t="n">
-        <v>0.037506103515625</v>
+        <v>-0.017608642578125</v>
       </c>
     </row>
     <row r="35">
@@ -1505,28 +1505,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.040313720703125</v>
+        <v>0.017974853515625</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.037841796875</v>
+        <v>0.0126953125</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.037841796875</v>
+        <v>0.0126953125</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.036590576171875</v>
+        <v>0.0191192626953125</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.0404052734375</v>
+        <v>0.0198822021484375</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.042449951171875</v>
+        <v>0.0171966552734375</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.0391845703125</v>
+        <v>0.018890380859375</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.04156494140625</v>
+        <v>0.016632080078125</v>
       </c>
     </row>
     <row r="36">
@@ -1536,28 +1536,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.04278564453125</v>
+        <v>-0.06536865234375</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.0447998046875</v>
+        <v>-0.058929443359375</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0447998046875</v>
+        <v>-0.058929443359375</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.04351806640625</v>
+        <v>-0.06494140625</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.04364013671875</v>
+        <v>-0.06622314453125</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.046478271484375</v>
+        <v>-0.0687255859375</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.04168701171875</v>
+        <v>-0.0660400390625</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.042449951171875</v>
+        <v>-0.0635986328125</v>
       </c>
     </row>
     <row r="37">
@@ -1567,28 +1567,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.08251953125</v>
+        <v>0.044952392578125</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07342529296875</v>
+        <v>0.0477294921875</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07342529296875</v>
+        <v>0.0477294921875</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0777587890625</v>
+        <v>0.04461669921875</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08514404296875</v>
+        <v>0.040924072265625</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0794677734375</v>
+        <v>0.04229736328125</v>
       </c>
       <c r="H37" t="n">
-        <v>0.08087158203125</v>
+        <v>0.04425048828125</v>
       </c>
       <c r="I37" t="n">
-        <v>0.07818603515625</v>
+        <v>0.043243408203125</v>
       </c>
     </row>
     <row r="38">
@@ -1598,28 +1598,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.10015869140625</v>
+        <v>-0.10772705078125</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.10711669921875</v>
+        <v>-0.10382080078125</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.10711669921875</v>
+        <v>-0.10382080078125</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.1097412109375</v>
+        <v>-0.10833740234375</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.09722900390625</v>
+        <v>-0.1051025390625</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.0916748046875</v>
+        <v>-0.1016845703125</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.10394287109375</v>
+        <v>-0.10565185546875</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.0994873046875</v>
+        <v>-0.103759765625</v>
       </c>
     </row>
     <row r="39">
@@ -1629,28 +1629,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.032379150390625</v>
+        <v>-0.266845703125</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.0202789306640625</v>
+        <v>-0.264892578125</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.0202789306640625</v>
+        <v>-0.264892578125</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.032867431640625</v>
+        <v>-0.2685546875</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.0316162109375</v>
+        <v>-0.26611328125</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.0294647216796875</v>
+        <v>-0.265625</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.03167724609375</v>
+        <v>-0.269287109375</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.0262603759765625</v>
+        <v>-0.267822265625</v>
       </c>
     </row>
     <row r="40">
@@ -1660,28 +1660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.025390625</v>
+        <v>-0.091552734375</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01361083984375</v>
+        <v>-0.08636474609375</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01361083984375</v>
+        <v>-0.08636474609375</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0266265869140625</v>
+        <v>-0.09222412109375</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0265045166015625</v>
+        <v>-0.08856201171875</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0212554931640625</v>
+        <v>-0.085205078125</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0258026123046875</v>
+        <v>-0.09307861328125</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0170745849609375</v>
+        <v>-0.0826416015625</v>
       </c>
     </row>
     <row r="41">
@@ -1691,28 +1691,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0350341796875</v>
+        <v>0.047943115234375</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0322265625</v>
+        <v>0.048553466796875</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0322265625</v>
+        <v>0.048553466796875</v>
       </c>
       <c r="E41" t="n">
-        <v>0.036376953125</v>
+        <v>0.047149658203125</v>
       </c>
       <c r="F41" t="n">
-        <v>0.035064697265625</v>
+        <v>0.04852294921875</v>
       </c>
       <c r="G41" t="n">
-        <v>0.035491943359375</v>
+        <v>0.05059814453125</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03662109375</v>
+        <v>0.04693603515625</v>
       </c>
       <c r="I41" t="n">
-        <v>0.03515625</v>
+        <v>0.050811767578125</v>
       </c>
     </row>
     <row r="42">
@@ -1722,28 +1722,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.03021240234375</v>
+        <v>-0.003339767456054688</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.027191162109375</v>
+        <v>-0.001505851745605469</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.027191162109375</v>
+        <v>-0.001505851745605469</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.032684326171875</v>
+        <v>-0.00528717041015625</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.0300750732421875</v>
+        <v>-0.004627227783203125</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.023162841796875</v>
+        <v>0.000980377197265625</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.0306549072265625</v>
+        <v>-0.00418853759765625</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.024810791015625</v>
+        <v>-0.003192901611328125</v>
       </c>
     </row>
     <row r="43">
@@ -1753,28 +1753,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.054107666015625</v>
+        <v>-0.10821533203125</v>
       </c>
       <c r="C43" t="n">
-        <v>0.05279541015625</v>
+        <v>-0.10406494140625</v>
       </c>
       <c r="D43" t="n">
-        <v>0.05279541015625</v>
+        <v>-0.10406494140625</v>
       </c>
       <c r="E43" t="n">
-        <v>0.056915283203125</v>
+        <v>-0.1090087890625</v>
       </c>
       <c r="F43" t="n">
-        <v>0.053924560546875</v>
+        <v>-0.10498046875</v>
       </c>
       <c r="G43" t="n">
-        <v>0.05206298828125</v>
+        <v>-0.10247802734375</v>
       </c>
       <c r="H43" t="n">
-        <v>0.055267333984375</v>
+        <v>-0.1090087890625</v>
       </c>
       <c r="I43" t="n">
-        <v>0.053314208984375</v>
+        <v>-0.104248046875</v>
       </c>
     </row>
     <row r="44">
@@ -1784,28 +1784,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.035003662109375</v>
+        <v>0.02044677734375</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.035247802734375</v>
+        <v>0.016265869140625</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.035247802734375</v>
+        <v>0.016265869140625</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.038665771484375</v>
+        <v>0.0205841064453125</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.034698486328125</v>
+        <v>0.021575927734375</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.030975341796875</v>
+        <v>0.02325439453125</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.03656005859375</v>
+        <v>0.018463134765625</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.032073974609375</v>
+        <v>0.0193939208984375</v>
       </c>
     </row>
     <row r="45">
@@ -1815,28 +1815,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.0160675048828125</v>
+        <v>-0.1190185546875</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.02410888671875</v>
+        <v>-0.123046875</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.02410888671875</v>
+        <v>-0.123046875</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.0172119140625</v>
+        <v>-0.12152099609375</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.0187530517578125</v>
+        <v>-0.12078857421875</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.019775390625</v>
+        <v>-0.1209716796875</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.016876220703125</v>
+        <v>-0.12103271484375</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.021881103515625</v>
+        <v>-0.1209716796875</v>
       </c>
     </row>
     <row r="46">
@@ -1846,28 +1846,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.07696533203125</v>
+        <v>-0.135498046875</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.05859375</v>
+        <v>-0.1259765625</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.05859375</v>
+        <v>-0.1259765625</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.07623291015625</v>
+        <v>-0.135986328125</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.0760498046875</v>
+        <v>-0.1356201171875</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.07196044921875</v>
+        <v>-0.1358642578125</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.07696533203125</v>
+        <v>-0.1357421875</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.06219482421875</v>
+        <v>-0.1339111328125</v>
       </c>
     </row>
     <row r="47">
@@ -1877,28 +1877,28 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.045654296875</v>
+        <v>0.042999267578125</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.040985107421875</v>
+        <v>0.05389404296875</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.040985107421875</v>
+        <v>0.05389404296875</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.045013427734375</v>
+        <v>0.045623779296875</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.044586181640625</v>
+        <v>0.04193115234375</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.0443115234375</v>
+        <v>0.048004150390625</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.0430908203125</v>
+        <v>0.04388427734375</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.0439453125</v>
+        <v>0.0491943359375</v>
       </c>
     </row>
     <row r="48">
@@ -1908,28 +1908,28 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.00684356689453125</v>
+        <v>0.0989990234375</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0054473876953125</v>
+        <v>0.10858154296875</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0054473876953125</v>
+        <v>0.10858154296875</v>
       </c>
       <c r="E48" t="n">
-        <v>0.005096435546875</v>
+        <v>0.1009521484375</v>
       </c>
       <c r="F48" t="n">
-        <v>0.006961822509765625</v>
+        <v>0.0980224609375</v>
       </c>
       <c r="G48" t="n">
-        <v>0.008026123046875</v>
+        <v>0.1024169921875</v>
       </c>
       <c r="H48" t="n">
-        <v>0.00670623779296875</v>
+        <v>0.09991455078125</v>
       </c>
       <c r="I48" t="n">
-        <v>0.00677490234375</v>
+        <v>0.1024169921875</v>
       </c>
     </row>
     <row r="49">
@@ -1939,28 +1939,28 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01528167724609375</v>
+        <v>-0.113037109375</v>
       </c>
       <c r="C49" t="n">
-        <v>0.021209716796875</v>
+        <v>-0.09857177734375</v>
       </c>
       <c r="D49" t="n">
-        <v>0.021209716796875</v>
+        <v>-0.09857177734375</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0170440673828125</v>
+        <v>-0.1134033203125</v>
       </c>
       <c r="F49" t="n">
-        <v>0.01512908935546875</v>
+        <v>-0.11163330078125</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01531219482421875</v>
+        <v>-0.11053466796875</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0152740478515625</v>
+        <v>-0.1126708984375</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0212860107421875</v>
+        <v>-0.1080322265625</v>
       </c>
     </row>
     <row r="50">
@@ -1970,28 +1970,28 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.079345703125</v>
+        <v>-0.08135986328125</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.07879638671875</v>
+        <v>-0.08428955078125</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.07879638671875</v>
+        <v>-0.08428955078125</v>
       </c>
       <c r="E50" t="n">
+        <v>-0.0811767578125</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.08050537109375</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.08367919921875</v>
+      </c>
+      <c r="H50" t="n">
         <v>-0.08111572265625</v>
       </c>
-      <c r="F50" t="n">
-        <v>-0.0782470703125</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-0.076904296875</v>
-      </c>
-      <c r="H50" t="n">
-        <v>-0.08074951171875</v>
-      </c>
       <c r="I50" t="n">
-        <v>-0.07733154296875</v>
+        <v>-0.08282470703125</v>
       </c>
     </row>
     <row r="51">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.0860595703125</v>
+        <v>-0.11187744140625</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.08880615234375</v>
+        <v>-0.1064453125</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.08880615234375</v>
+        <v>-0.1064453125</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.0904541015625</v>
+        <v>-0.11480712890625</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.086181640625</v>
+        <v>-0.10980224609375</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.08905029296875</v>
+        <v>-0.108154296875</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.0882568359375</v>
+        <v>-0.113525390625</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.0919189453125</v>
+        <v>-0.10693359375</v>
       </c>
     </row>
     <row r="52">
@@ -2032,28 +2032,28 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.0438232421875</v>
+        <v>-0.0946044921875</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.03424072265625</v>
+        <v>-0.0897216796875</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.03424072265625</v>
+        <v>-0.0897216796875</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.043731689453125</v>
+        <v>-0.09539794921875</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.041107177734375</v>
+        <v>-0.09429931640625</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.03826904296875</v>
+        <v>-0.09478759765625</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.044158935546875</v>
+        <v>-0.09417724609375</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.038665771484375</v>
+        <v>-0.0972900390625</v>
       </c>
     </row>
     <row r="53">
@@ -2063,28 +2063,28 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.0950927734375</v>
+        <v>0.0413818359375</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.0902099609375</v>
+        <v>0.0369873046875</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.0902099609375</v>
+        <v>0.0369873046875</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.0924072265625</v>
+        <v>0.041229248046875</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.09136962890625</v>
+        <v>0.04473876953125</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.09796142578125</v>
+        <v>0.043243408203125</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.09613037109375</v>
+        <v>0.039459228515625</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.09295654296875</v>
+        <v>0.043792724609375</v>
       </c>
     </row>
     <row r="54">
@@ -2094,28 +2094,28 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.00921630859375</v>
+        <v>-0.09869384765625</v>
       </c>
       <c r="C54" t="n">
-        <v>0.00353240966796875</v>
+        <v>-0.102783203125</v>
       </c>
       <c r="D54" t="n">
-        <v>0.00353240966796875</v>
+        <v>-0.102783203125</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0077056884765625</v>
+        <v>-0.100341796875</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00821685791015625</v>
+        <v>-0.0960693359375</v>
       </c>
       <c r="G54" t="n">
-        <v>0.00901031494140625</v>
+        <v>-0.09747314453125</v>
       </c>
       <c r="H54" t="n">
-        <v>0.00811767578125</v>
+        <v>-0.0989990234375</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0094757080078125</v>
+        <v>-0.10076904296875</v>
       </c>
     </row>
     <row r="55">
@@ -2125,28 +2125,28 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.0252685546875</v>
+        <v>0.01096343994140625</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.033233642578125</v>
+        <v>0.0127105712890625</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.033233642578125</v>
+        <v>0.0127105712890625</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.03118896484375</v>
+        <v>0.00838470458984375</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.027008056640625</v>
+        <v>0.01222991943359375</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.031463623046875</v>
+        <v>0.01226043701171875</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.0276031494140625</v>
+        <v>0.01044464111328125</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.03466796875</v>
+        <v>0.01023101806640625</v>
       </c>
     </row>
     <row r="56">
@@ -2156,28 +2156,28 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.049285888671875</v>
+        <v>-0.2366943359375</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.0390625</v>
+        <v>-0.23486328125</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.0390625</v>
+        <v>-0.23486328125</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.051025390625</v>
+        <v>-0.236328125</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.048065185546875</v>
+        <v>-0.2347412109375</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.046112060546875</v>
+        <v>-0.2332763671875</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.050384521484375</v>
+        <v>-0.2391357421875</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.044403076171875</v>
+        <v>-0.234375</v>
       </c>
     </row>
     <row r="57">
@@ -2187,28 +2187,28 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.135498046875</v>
+        <v>-0.171142578125</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.123046875</v>
+        <v>-0.1689453125</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.123046875</v>
+        <v>-0.1689453125</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.1317138671875</v>
+        <v>-0.17138671875</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.1346435546875</v>
+        <v>-0.172607421875</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1307373046875</v>
+        <v>-0.175537109375</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.132568359375</v>
+        <v>-0.171875</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.1279296875</v>
+        <v>-0.171875</v>
       </c>
     </row>
     <row r="58">
@@ -2218,28 +2218,28 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.01219940185546875</v>
+        <v>-0.005218505859375</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.007843017578125</v>
+        <v>-0.00893402099609375</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.007843017578125</v>
+        <v>-0.00893402099609375</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.012725830078125</v>
+        <v>-0.005748748779296875</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.01082611083984375</v>
+        <v>-0.006145477294921875</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.0054931640625</v>
+        <v>-0.0053253173828125</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.01253509521484375</v>
+        <v>-0.00786590576171875</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.004791259765625</v>
+        <v>-0.003002166748046875</v>
       </c>
     </row>
     <row r="59">
@@ -2249,28 +2249,28 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.044342041015625</v>
+        <v>0.09088134765625</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.035369873046875</v>
+        <v>0.09332275390625</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.035369873046875</v>
+        <v>0.09332275390625</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.0447998046875</v>
+        <v>0.0936279296875</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.0433349609375</v>
+        <v>0.09088134765625</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.040985107421875</v>
+        <v>0.091552734375</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.044158935546875</v>
+        <v>0.09368896484375</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.03826904296875</v>
+        <v>0.09234619140625</v>
       </c>
     </row>
     <row r="60">
@@ -2280,28 +2280,28 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.11639404296875</v>
+        <v>0.01334381103515625</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1279296875</v>
+        <v>0.0158843994140625</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1279296875</v>
+        <v>0.0158843994140625</v>
       </c>
       <c r="E60" t="n">
-        <v>0.120361328125</v>
+        <v>0.01364898681640625</v>
       </c>
       <c r="F60" t="n">
-        <v>0.12353515625</v>
+        <v>0.01276397705078125</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1279296875</v>
+        <v>0.0166015625</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1195068359375</v>
+        <v>0.0153045654296875</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1282958984375</v>
+        <v>0.018310546875</v>
       </c>
     </row>
     <row r="61">
@@ -2311,28 +2311,28 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.00527191162109375</v>
+        <v>0.09033203125</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.00632476806640625</v>
+        <v>0.08380126953125</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.00632476806640625</v>
+        <v>0.08380126953125</v>
       </c>
       <c r="E61" t="n">
-        <v>0.004856109619140625</v>
+        <v>0.08770751953125</v>
       </c>
       <c r="F61" t="n">
-        <v>0.00501251220703125</v>
+        <v>0.08917236328125</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0006289482116699219</v>
+        <v>0.0902099609375</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0050048828125</v>
+        <v>0.08868408203125</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.002573013305664062</v>
+        <v>0.0875244140625</v>
       </c>
     </row>
     <row r="62">
@@ -2342,28 +2342,28 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.151123046875</v>
+        <v>-0.036285400390625</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.14892578125</v>
+        <v>-0.041900634765625</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.14892578125</v>
+        <v>-0.041900634765625</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.1533203125</v>
+        <v>-0.03399658203125</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.150634765625</v>
+        <v>-0.035552978515625</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1463623046875</v>
+        <v>-0.038116455078125</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.1513671875</v>
+        <v>-0.033203125</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.144287109375</v>
+        <v>-0.040069580078125</v>
       </c>
     </row>
     <row r="63">
@@ -2373,28 +2373,28 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.0816650390625</v>
+        <v>-0.01265716552734375</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.06512451171875</v>
+        <v>-0.019073486328125</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.06512451171875</v>
+        <v>-0.019073486328125</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.08514404296875</v>
+        <v>-0.01110076904296875</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.0810546875</v>
+        <v>-0.01544952392578125</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.078125</v>
+        <v>-0.0192718505859375</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.0826416015625</v>
+        <v>-0.01241302490234375</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.07403564453125</v>
+        <v>-0.01947021484375</v>
       </c>
     </row>
     <row r="64">
@@ -2404,28 +2404,28 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0182647705078125</v>
+        <v>0.021240234375</v>
       </c>
       <c r="C64" t="n">
-        <v>0.031097412109375</v>
+        <v>0.0224761962890625</v>
       </c>
       <c r="D64" t="n">
-        <v>0.031097412109375</v>
+        <v>0.0224761962890625</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0164794921875</v>
+        <v>0.0195159912109375</v>
       </c>
       <c r="F64" t="n">
-        <v>0.021331787109375</v>
+        <v>0.0214385986328125</v>
       </c>
       <c r="G64" t="n">
-        <v>0.027191162109375</v>
+        <v>0.022125244140625</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0185394287109375</v>
+        <v>0.0180816650390625</v>
       </c>
       <c r="I64" t="n">
-        <v>0.030914306640625</v>
+        <v>0.0219573974609375</v>
       </c>
     </row>
     <row r="65">
@@ -2435,28 +2435,28 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.0001735687255859375</v>
+        <v>0.0863037109375</v>
       </c>
       <c r="C65" t="n">
-        <v>0.006031036376953125</v>
+        <v>0.08892822265625</v>
       </c>
       <c r="D65" t="n">
-        <v>0.006031036376953125</v>
+        <v>0.08892822265625</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.003843307495117188</v>
+        <v>0.0872802734375</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0004508495330810547</v>
+        <v>0.08612060546875</v>
       </c>
       <c r="G65" t="n">
-        <v>0.00684356689453125</v>
+        <v>0.0860595703125</v>
       </c>
       <c r="H65" t="n">
-        <v>0.002750396728515625</v>
+        <v>0.086181640625</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0055694580078125</v>
+        <v>0.08636474609375</v>
       </c>
     </row>
     <row r="66">
@@ -2466,28 +2466,28 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.147705078125</v>
+        <v>-0.038848876953125</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.12548828125</v>
+        <v>-0.03436279296875</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.12548828125</v>
+        <v>-0.03436279296875</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.14990234375</v>
+        <v>-0.034454345703125</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.1468505859375</v>
+        <v>-0.038299560546875</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.1473388671875</v>
+        <v>-0.04241943359375</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.1461181640625</v>
+        <v>-0.038360595703125</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.1494140625</v>
+        <v>-0.037109375</v>
       </c>
     </row>
     <row r="67">
@@ -2497,28 +2497,28 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.0228729248046875</v>
+        <v>-0.1055908203125</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.0207366943359375</v>
+        <v>-0.10845947265625</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.0207366943359375</v>
+        <v>-0.10845947265625</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.0293731689453125</v>
+        <v>-0.1064453125</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.021697998046875</v>
+        <v>-0.10809326171875</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.01519012451171875</v>
+        <v>-0.10748291015625</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.0264892578125</v>
+        <v>-0.1075439453125</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.016876220703125</v>
+        <v>-0.107666015625</v>
       </c>
     </row>
     <row r="68">
@@ -2528,28 +2528,28 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.06988525390625</v>
+        <v>-0.1634521484375</v>
       </c>
       <c r="C68" t="n">
-        <v>0.04986572265625</v>
+        <v>-0.1658935546875</v>
       </c>
       <c r="D68" t="n">
-        <v>0.04986572265625</v>
+        <v>-0.1658935546875</v>
       </c>
       <c r="E68" t="n">
-        <v>0.067626953125</v>
+        <v>-0.1683349609375</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0670166015625</v>
+        <v>-0.16357421875</v>
       </c>
       <c r="G68" t="n">
-        <v>0.057861328125</v>
+        <v>-0.165771484375</v>
       </c>
       <c r="H68" t="n">
-        <v>0.069580078125</v>
+        <v>-0.1663818359375</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0506591796875</v>
+        <v>-0.167724609375</v>
       </c>
     </row>
     <row r="69">
@@ -2559,28 +2559,28 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.058319091796875</v>
+        <v>0.059600830078125</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.04925537109375</v>
+        <v>0.060272216796875</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.04925537109375</v>
+        <v>0.060272216796875</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.059234619140625</v>
+        <v>0.061126708984375</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.056365966796875</v>
+        <v>0.06011962890625</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.0518798828125</v>
+        <v>0.059356689453125</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.058807373046875</v>
+        <v>0.062042236328125</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.04473876953125</v>
+        <v>0.06060791015625</v>
       </c>
     </row>
     <row r="70">
@@ -2590,28 +2590,28 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.08538818359375</v>
+        <v>-0.1455078125</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.056884765625</v>
+        <v>-0.1409912109375</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.056884765625</v>
+        <v>-0.1409912109375</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.0809326171875</v>
+        <v>-0.142578125</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.08319091796875</v>
+        <v>-0.145263671875</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.0797119140625</v>
+        <v>-0.1466064453125</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.0802001953125</v>
+        <v>-0.14501953125</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.06854248046875</v>
+        <v>-0.1419677734375</v>
       </c>
     </row>
     <row r="71">
@@ -2621,28 +2621,28 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.00972747802734375</v>
+        <v>0.08209228515625</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.00812530517578125</v>
+        <v>0.0841064453125</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.00812530517578125</v>
+        <v>0.0841064453125</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.00823974609375</v>
+        <v>0.0821533203125</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.01171112060546875</v>
+        <v>0.083251953125</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.018157958984375</v>
+        <v>0.0811767578125</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.00958251953125</v>
+        <v>0.08197021484375</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.01317596435546875</v>
+        <v>0.08148193359375</v>
       </c>
     </row>
     <row r="72">
@@ -2652,28 +2652,28 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.0509033203125</v>
+        <v>-0.1644287109375</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.06396484375</v>
+        <v>-0.1612548828125</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.06396484375</v>
+        <v>-0.1612548828125</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.048583984375</v>
+        <v>-0.1641845703125</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.053466796875</v>
+        <v>-0.1650390625</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.063232421875</v>
+        <v>-0.1651611328125</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.048370361328125</v>
+        <v>-0.164306640625</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.0654296875</v>
+        <v>-0.1605224609375</v>
       </c>
     </row>
     <row r="73">
@@ -2683,28 +2683,28 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.1077880859375</v>
+        <v>0.1925048828125</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.10052490234375</v>
+        <v>0.1920166015625</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.10052490234375</v>
+        <v>0.1920166015625</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.10699462890625</v>
+        <v>0.193115234375</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.107177734375</v>
+        <v>0.191162109375</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1077880859375</v>
+        <v>0.1912841796875</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.10736083984375</v>
+        <v>0.1929931640625</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.100341796875</v>
+        <v>0.1942138671875</v>
       </c>
     </row>
     <row r="74">
@@ -2714,28 +2714,28 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-0.0328369140625</v>
+        <v>-0.0950927734375</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.030914306640625</v>
+        <v>-0.0965576171875</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.030914306640625</v>
+        <v>-0.0965576171875</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.03460693359375</v>
+        <v>-0.09576416015625</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.0301361083984375</v>
+        <v>-0.093017578125</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.0343017578125</v>
+        <v>-0.09197998046875</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.032958984375</v>
+        <v>-0.09521484375</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.038055419921875</v>
+        <v>-0.09295654296875</v>
       </c>
     </row>
     <row r="75">
@@ -2745,28 +2745,28 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.04217529296875</v>
+        <v>-0.2474365234375</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.03814697265625</v>
+        <v>-0.2474365234375</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.03814697265625</v>
+        <v>-0.2474365234375</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.045654296875</v>
+        <v>-0.2447509765625</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.0394287109375</v>
+        <v>-0.2479248046875</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.036041259765625</v>
+        <v>-0.25</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.04425048828125</v>
+        <v>-0.2467041015625</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.037322998046875</v>
+        <v>-0.248779296875</v>
       </c>
     </row>
     <row r="76">
@@ -2776,28 +2776,28 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.0762939453125</v>
+        <v>0.169921875</v>
       </c>
       <c r="C76" t="n">
-        <v>0.07080078125</v>
+        <v>0.1778564453125</v>
       </c>
       <c r="D76" t="n">
-        <v>0.07080078125</v>
+        <v>0.1778564453125</v>
       </c>
       <c r="E76" t="n">
-        <v>0.07177734375</v>
+        <v>0.1700439453125</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0751953125</v>
+        <v>0.168701171875</v>
       </c>
       <c r="G76" t="n">
-        <v>0.06964111328125</v>
+        <v>0.17236328125</v>
       </c>
       <c r="H76" t="n">
-        <v>0.074951171875</v>
+        <v>0.1700439453125</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0694580078125</v>
+        <v>0.1761474609375</v>
       </c>
     </row>
     <row r="77">
@@ -2807,28 +2807,28 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.12249755859375</v>
+        <v>0.001455307006835938</v>
       </c>
       <c r="C77" t="n">
-        <v>0.11920166015625</v>
+        <v>-0.00521087646484375</v>
       </c>
       <c r="D77" t="n">
-        <v>0.11920166015625</v>
+        <v>-0.00521087646484375</v>
       </c>
       <c r="E77" t="n">
-        <v>0.12054443359375</v>
+        <v>-0.0008883476257324219</v>
       </c>
       <c r="F77" t="n">
-        <v>0.12200927734375</v>
+        <v>0.0002197027206420898</v>
       </c>
       <c r="G77" t="n">
-        <v>0.12164306640625</v>
+        <v>-0.00380706787109375</v>
       </c>
       <c r="H77" t="n">
-        <v>0.12109375</v>
+        <v>0.001361846923828125</v>
       </c>
       <c r="I77" t="n">
-        <v>0.117919921875</v>
+        <v>-0.006099700927734375</v>
       </c>
     </row>
     <row r="78">
@@ -2838,28 +2838,28 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.0224151611328125</v>
+        <v>0.0975341796875</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0120849609375</v>
+        <v>0.1021728515625</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0120849609375</v>
+        <v>0.1021728515625</v>
       </c>
       <c r="E78" t="n">
-        <v>0.019683837890625</v>
+        <v>0.09808349609375</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0204620361328125</v>
+        <v>0.099365234375</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0200042724609375</v>
+        <v>0.09906005859375</v>
       </c>
       <c r="H78" t="n">
-        <v>0.021728515625</v>
+        <v>0.0987548828125</v>
       </c>
       <c r="I78" t="n">
-        <v>0.01812744140625</v>
+        <v>0.10205078125</v>
       </c>
     </row>
     <row r="79">
@@ -2869,28 +2869,28 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.045318603515625</v>
+        <v>0.00843048095703125</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.032318115234375</v>
+        <v>0.018768310546875</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.032318115234375</v>
+        <v>0.018768310546875</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.044769287109375</v>
+        <v>0.01001739501953125</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.04205322265625</v>
+        <v>0.00942230224609375</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.041595458984375</v>
+        <v>0.01119232177734375</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.042999267578125</v>
+        <v>0.0120849609375</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.033905029296875</v>
+        <v>0.01235198974609375</v>
       </c>
     </row>
     <row r="80">
@@ -2900,28 +2900,28 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.0260009765625</v>
+        <v>0.057708740234375</v>
       </c>
       <c r="C80" t="n">
-        <v>0.02215576171875</v>
+        <v>0.049102783203125</v>
       </c>
       <c r="D80" t="n">
-        <v>0.02215576171875</v>
+        <v>0.049102783203125</v>
       </c>
       <c r="E80" t="n">
-        <v>0.023895263671875</v>
+        <v>0.05511474609375</v>
       </c>
       <c r="F80" t="n">
-        <v>0.030303955078125</v>
+        <v>0.058685302734375</v>
       </c>
       <c r="G80" t="n">
-        <v>0.032623291015625</v>
+        <v>0.056121826171875</v>
       </c>
       <c r="H80" t="n">
-        <v>0.024810791015625</v>
+        <v>0.057037353515625</v>
       </c>
       <c r="I80" t="n">
-        <v>0.0301361083984375</v>
+        <v>0.0538330078125</v>
       </c>
     </row>
     <row r="81">
@@ -2931,28 +2931,28 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.023956298828125</v>
+        <v>0.1898193359375</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.0140380859375</v>
+        <v>0.193115234375</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.0140380859375</v>
+        <v>0.193115234375</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.027496337890625</v>
+        <v>0.19140625</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.0225677490234375</v>
+        <v>0.189208984375</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.0160980224609375</v>
+        <v>0.189208984375</v>
       </c>
       <c r="H81" t="n">
-        <v>-0.0256805419921875</v>
+        <v>0.190185546875</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.01425933837890625</v>
+        <v>0.190185546875</v>
       </c>
     </row>
     <row r="82">
@@ -2962,28 +2962,28 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.055267333984375</v>
+        <v>-0.33349609375</v>
       </c>
       <c r="C82" t="n">
-        <v>0.038421630859375</v>
+        <v>-0.3349609375</v>
       </c>
       <c r="D82" t="n">
-        <v>0.038421630859375</v>
+        <v>-0.3349609375</v>
       </c>
       <c r="E82" t="n">
-        <v>0.05633544921875</v>
+        <v>-0.334228515625</v>
       </c>
       <c r="F82" t="n">
-        <v>0.05596923828125</v>
+        <v>-0.331298828125</v>
       </c>
       <c r="G82" t="n">
-        <v>0.063232421875</v>
+        <v>-0.331787109375</v>
       </c>
       <c r="H82" t="n">
-        <v>0.053955078125</v>
+        <v>-0.333740234375</v>
       </c>
       <c r="I82" t="n">
-        <v>0.0570068359375</v>
+        <v>-0.329833984375</v>
       </c>
     </row>
     <row r="83">
@@ -2993,28 +2993,28 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.0196075439453125</v>
+        <v>-0.20166015625</v>
       </c>
       <c r="C83" t="n">
-        <v>0.01311492919921875</v>
+        <v>-0.19775390625</v>
       </c>
       <c r="D83" t="n">
-        <v>0.01311492919921875</v>
+        <v>-0.19775390625</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0189056396484375</v>
+        <v>-0.197509765625</v>
       </c>
       <c r="F83" t="n">
-        <v>0.017913818359375</v>
+        <v>-0.2003173828125</v>
       </c>
       <c r="G83" t="n">
-        <v>0.014556884765625</v>
+        <v>-0.2003173828125</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0198974609375</v>
+        <v>-0.199951171875</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0111083984375</v>
+        <v>-0.19384765625</v>
       </c>
     </row>
     <row r="84">
@@ -3024,28 +3024,28 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.10400390625</v>
+        <v>-0.2415771484375</v>
       </c>
       <c r="C84" t="n">
-        <v>0.09283447265625</v>
+        <v>-0.235595703125</v>
       </c>
       <c r="D84" t="n">
-        <v>0.09283447265625</v>
+        <v>-0.235595703125</v>
       </c>
       <c r="E84" t="n">
-        <v>0.11029052734375</v>
+        <v>-0.241943359375</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1004638671875</v>
+        <v>-0.2403564453125</v>
       </c>
       <c r="G84" t="n">
-        <v>0.09259033203125</v>
+        <v>-0.24072265625</v>
       </c>
       <c r="H84" t="n">
-        <v>0.10614013671875</v>
+        <v>-0.240234375</v>
       </c>
       <c r="I84" t="n">
-        <v>0.08843994140625</v>
+        <v>-0.2412109375</v>
       </c>
     </row>
     <row r="85">
@@ -3055,28 +3055,28 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.037994384765625</v>
+        <v>-0.08770751953125</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.033355712890625</v>
+        <v>-0.0845947265625</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.033355712890625</v>
+        <v>-0.0845947265625</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.036865234375</v>
+        <v>-0.0850830078125</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.03802490234375</v>
+        <v>-0.08721923828125</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.03631591796875</v>
+        <v>-0.08709716796875</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.037994384765625</v>
+        <v>-0.08624267578125</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.034210205078125</v>
+        <v>-0.08551025390625</v>
       </c>
     </row>
     <row r="86">
@@ -3086,28 +3086,28 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.0538330078125</v>
+        <v>0.0347900390625</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.0428466796875</v>
+        <v>0.039306640625</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.0428466796875</v>
+        <v>0.039306640625</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.05224609375</v>
+        <v>0.03851318359375</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.051483154296875</v>
+        <v>0.035675048828125</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.045440673828125</v>
+        <v>0.039642333984375</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.05322265625</v>
+        <v>0.036651611328125</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.042694091796875</v>
+        <v>0.044677734375</v>
       </c>
     </row>
     <row r="87">
@@ -3117,28 +3117,28 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.07427978515625</v>
+        <v>0.0303192138671875</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.0770263671875</v>
+        <v>0.03912353515625</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.0770263671875</v>
+        <v>0.03912353515625</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.0721435546875</v>
+        <v>0.03289794921875</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.07562255859375</v>
+        <v>0.029083251953125</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.07452392578125</v>
+        <v>0.033721923828125</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.07159423828125</v>
+        <v>0.031829833984375</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.0728759765625</v>
+        <v>0.034393310546875</v>
       </c>
     </row>
     <row r="88">
@@ -3148,28 +3148,28 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.04364013671875</v>
+        <v>-0.004344940185546875</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.032257080078125</v>
+        <v>-0.002475738525390625</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.032257080078125</v>
+        <v>-0.002475738525390625</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.045562744140625</v>
+        <v>-0.004070281982421875</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.040252685546875</v>
+        <v>-0.005016326904296875</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.041229248046875</v>
+        <v>-0.00490570068359375</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.045745849609375</v>
+        <v>-0.006435394287109375</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.032806396484375</v>
+        <v>-0.004093170166015625</v>
       </c>
     </row>
     <row r="89">
@@ -3179,28 +3179,28 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-0.09027099609375</v>
+        <v>-0.0128631591796875</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.08740234375</v>
+        <v>-0.01097869873046875</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.08740234375</v>
+        <v>-0.01097869873046875</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.0916748046875</v>
+        <v>-0.01258087158203125</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.0902099609375</v>
+        <v>-0.00942230224609375</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.08880615234375</v>
+        <v>-0.01288604736328125</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.08990478515625</v>
+        <v>-0.011962890625</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.09002685546875</v>
+        <v>-0.0149383544921875</v>
       </c>
     </row>
     <row r="90">
@@ -3210,28 +3210,28 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.0413818359375</v>
+        <v>0.107666015625</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.03973388671875</v>
+        <v>0.10369873046875</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.03973388671875</v>
+        <v>0.10369873046875</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.04351806640625</v>
+        <v>0.10845947265625</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.04071044921875</v>
+        <v>0.10882568359375</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.03961181640625</v>
+        <v>0.10784912109375</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.043060302734375</v>
+        <v>0.10760498046875</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.040191650390625</v>
+        <v>0.10589599609375</v>
       </c>
     </row>
     <row r="91">
@@ -3241,28 +3241,28 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.0130767822265625</v>
+        <v>0.08746337890625</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.0249481201171875</v>
+        <v>0.07672119140625</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.0249481201171875</v>
+        <v>0.07672119140625</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.00827789306640625</v>
+        <v>0.08642578125</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.0162353515625</v>
+        <v>0.0888671875</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.0255889892578125</v>
+        <v>0.0855712890625</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.0089569091796875</v>
+        <v>0.087646484375</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.028289794921875</v>
+        <v>0.0826416015625</v>
       </c>
     </row>
     <row r="92">
@@ -3272,28 +3272,28 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.00798797607421875</v>
+        <v>0.1409912109375</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0241546630859375</v>
+        <v>0.1373291015625</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0241546630859375</v>
+        <v>0.1373291015625</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0140228271484375</v>
+        <v>0.1422119140625</v>
       </c>
       <c r="F92" t="n">
-        <v>0.012603759765625</v>
+        <v>0.1414794921875</v>
       </c>
       <c r="G92" t="n">
-        <v>0.019989013671875</v>
+        <v>0.13818359375</v>
       </c>
       <c r="H92" t="n">
-        <v>0.009429931640625</v>
+        <v>0.14111328125</v>
       </c>
       <c r="I92" t="n">
-        <v>0.0263519287109375</v>
+        <v>0.1405029296875</v>
       </c>
     </row>
     <row r="93">
@@ -3303,28 +3303,28 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.0162506103515625</v>
+        <v>0.0704345703125</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.0160675048828125</v>
+        <v>0.07110595703125</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.0160675048828125</v>
+        <v>0.07110595703125</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.01540374755859375</v>
+        <v>0.07232666015625</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.01502227783203125</v>
+        <v>0.06866455078125</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.016571044921875</v>
+        <v>0.0689697265625</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.01558685302734375</v>
+        <v>0.07110595703125</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.01375579833984375</v>
+        <v>0.0697021484375</v>
       </c>
     </row>
     <row r="94">
@@ -3334,28 +3334,28 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.11700439453125</v>
+        <v>-0.008819580078125</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.1160888671875</v>
+        <v>-0.001552581787109375</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.1160888671875</v>
+        <v>-0.001552581787109375</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.11578369140625</v>
+        <v>-0.00925445556640625</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.11639404296875</v>
+        <v>-0.007724761962890625</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1134033203125</v>
+        <v>-0.009735107421875</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.11956787109375</v>
+        <v>-0.007720947265625</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.108154296875</v>
+        <v>-0.0057525634765625</v>
       </c>
     </row>
     <row r="95">
@@ -3365,28 +3365,28 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.03118896484375</v>
+        <v>-0.1014404296875</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.03692626953125</v>
+        <v>-0.09722900390625</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.03692626953125</v>
+        <v>-0.09722900390625</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.029937744140625</v>
+        <v>-0.09967041015625</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.032745361328125</v>
+        <v>-0.10205078125</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0374755859375</v>
+        <v>-0.10186767578125</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.0290679931640625</v>
+        <v>-0.10137939453125</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.03924560546875</v>
+        <v>-0.0987548828125</v>
       </c>
     </row>
     <row r="96">
@@ -3396,28 +3396,28 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.033294677734375</v>
+        <v>-0.08447265625</v>
       </c>
       <c r="C96" t="n">
-        <v>0.035308837890625</v>
+        <v>-0.07373046875</v>
       </c>
       <c r="D96" t="n">
-        <v>0.035308837890625</v>
+        <v>-0.07373046875</v>
       </c>
       <c r="E96" t="n">
-        <v>0.03167724609375</v>
+        <v>-0.0833740234375</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0312347412109375</v>
+        <v>-0.08148193359375</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03192138671875</v>
+        <v>-0.07977294921875</v>
       </c>
       <c r="H96" t="n">
-        <v>0.03411865234375</v>
+        <v>-0.0814208984375</v>
       </c>
       <c r="I96" t="n">
-        <v>0.0347900390625</v>
+        <v>-0.0797119140625</v>
       </c>
     </row>
     <row r="97">
@@ -3427,28 +3427,28 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.06610107421875</v>
+        <v>0.00745391845703125</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.0693359375</v>
+        <v>0.000675201416015625</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.0693359375</v>
+        <v>0.000675201416015625</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.06976318359375</v>
+        <v>0.0057373046875</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.06732177734375</v>
+        <v>0.00556182861328125</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.06884765625</v>
+        <v>0.003337860107421875</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.06671142578125</v>
+        <v>0.00749969482421875</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.07171630859375</v>
+        <v>0.003808975219726562</v>
       </c>
     </row>
     <row r="98">
@@ -3458,28 +3458,28 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.0623779296875</v>
+        <v>0.07537841796875</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.07354736328125</v>
+        <v>0.06689453125</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.07354736328125</v>
+        <v>0.06689453125</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.057098388671875</v>
+        <v>0.0736083984375</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.06591796875</v>
+        <v>0.07659912109375</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.07275390625</v>
+        <v>0.0777587890625</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.06121826171875</v>
+        <v>0.07659912109375</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.071044921875</v>
+        <v>0.07452392578125</v>
       </c>
     </row>
     <row r="99">
@@ -3489,28 +3489,28 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.00543212890625</v>
+        <v>-0.1224365234375</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.001272201538085938</v>
+        <v>-0.1260986328125</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.001272201538085938</v>
+        <v>-0.1260986328125</v>
       </c>
       <c r="E99" t="n">
-        <v>0.00620269775390625</v>
+        <v>-0.1265869140625</v>
       </c>
       <c r="F99" t="n">
-        <v>0.003210067749023438</v>
+        <v>-0.1241455078125</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.0007801055908203125</v>
+        <v>-0.122314453125</v>
       </c>
       <c r="H99" t="n">
-        <v>0.006557464599609375</v>
+        <v>-0.12481689453125</v>
       </c>
       <c r="I99" t="n">
-        <v>0.001442909240722656</v>
+        <v>-0.122314453125</v>
       </c>
     </row>
     <row r="100">
@@ -3520,28 +3520,28 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.0243682861328125</v>
+        <v>0.03192138671875</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0328369140625</v>
+        <v>0.0231475830078125</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0328369140625</v>
+        <v>0.0231475830078125</v>
       </c>
       <c r="E100" t="n">
-        <v>0.023529052734375</v>
+        <v>0.035491943359375</v>
       </c>
       <c r="F100" t="n">
-        <v>0.02459716796875</v>
+        <v>0.03277587890625</v>
       </c>
       <c r="G100" t="n">
-        <v>0.025726318359375</v>
+        <v>0.02789306640625</v>
       </c>
       <c r="H100" t="n">
-        <v>0.0235595703125</v>
+        <v>0.032501220703125</v>
       </c>
       <c r="I100" t="n">
-        <v>0.027496337890625</v>
+        <v>0.026275634765625</v>
       </c>
     </row>
     <row r="101">
@@ -3551,28 +3551,28 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.1517333984375</v>
+        <v>-0.08258056640625</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.1353759765625</v>
+        <v>-0.07720947265625</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.1353759765625</v>
+        <v>-0.07720947265625</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.1490478515625</v>
+        <v>-0.08197021484375</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.149658203125</v>
+        <v>-0.0819091796875</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.15087890625</v>
+        <v>-0.08245849609375</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.1483154296875</v>
+        <v>-0.082763671875</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.1405029296875</v>
+        <v>-0.08160400390625</v>
       </c>
     </row>
     <row r="102">
@@ -3582,28 +3582,28 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.04083251953125</v>
+        <v>-0.0965576171875</v>
       </c>
       <c r="C102" t="n">
-        <v>0.019622802734375</v>
+        <v>-0.095703125</v>
       </c>
       <c r="D102" t="n">
-        <v>0.019622802734375</v>
+        <v>-0.095703125</v>
       </c>
       <c r="E102" t="n">
-        <v>0.039794921875</v>
+        <v>-0.09765625</v>
       </c>
       <c r="F102" t="n">
-        <v>0.039642333984375</v>
+        <v>-0.0953369140625</v>
       </c>
       <c r="G102" t="n">
-        <v>0.032958984375</v>
+        <v>-0.09326171875</v>
       </c>
       <c r="H102" t="n">
-        <v>0.041351318359375</v>
+        <v>-0.09783935546875</v>
       </c>
       <c r="I102" t="n">
-        <v>0.020721435546875</v>
+        <v>-0.0975341796875</v>
       </c>
     </row>
     <row r="103">
@@ -3613,28 +3613,28 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-0.0628662109375</v>
+        <v>0.03997802734375</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.056365966796875</v>
+        <v>0.031585693359375</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.056365966796875</v>
+        <v>0.031585693359375</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.0628662109375</v>
+        <v>0.03680419921875</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.060272216796875</v>
+        <v>0.03912353515625</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.05499267578125</v>
+        <v>0.037506103515625</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.06280517578125</v>
+        <v>0.038116455078125</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.0537109375</v>
+        <v>0.038421630859375</v>
       </c>
     </row>
     <row r="104">
@@ -3644,28 +3644,28 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.1163330078125</v>
+        <v>-0.339111328125</v>
       </c>
       <c r="C104" t="n">
-        <v>0.10400390625</v>
+        <v>-0.33544921875</v>
       </c>
       <c r="D104" t="n">
-        <v>0.10400390625</v>
+        <v>-0.33544921875</v>
       </c>
       <c r="E104" t="n">
-        <v>0.11126708984375</v>
+        <v>-0.339111328125</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1185302734375</v>
+        <v>-0.336181640625</v>
       </c>
       <c r="G104" t="n">
-        <v>0.11724853515625</v>
+        <v>-0.3388671875</v>
       </c>
       <c r="H104" t="n">
-        <v>0.114013671875</v>
+        <v>-0.33642578125</v>
       </c>
       <c r="I104" t="n">
-        <v>0.1077880859375</v>
+        <v>-0.343017578125</v>
       </c>
     </row>
     <row r="105">
@@ -3675,28 +3675,28 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-0.10247802734375</v>
+        <v>-0.23876953125</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.07696533203125</v>
+        <v>-0.2376708984375</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.07696533203125</v>
+        <v>-0.2376708984375</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.1007080078125</v>
+        <v>-0.23876953125</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.098388671875</v>
+        <v>-0.23974609375</v>
       </c>
       <c r="G105" t="n">
-        <v>-0.08245849609375</v>
+        <v>-0.241455078125</v>
       </c>
       <c r="H105" t="n">
-        <v>-0.0994873046875</v>
+        <v>-0.2384033203125</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.07403564453125</v>
+        <v>-0.241455078125</v>
       </c>
     </row>
     <row r="106">
@@ -3706,28 +3706,28 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-0.043731689453125</v>
+        <v>-0.1275634765625</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.049041748046875</v>
+        <v>-0.1392822265625</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.049041748046875</v>
+        <v>-0.1392822265625</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.0433349609375</v>
+        <v>-0.127685546875</v>
       </c>
       <c r="F106" t="n">
-        <v>-0.04449462890625</v>
+        <v>-0.1290283203125</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.04864501953125</v>
+        <v>-0.1343994140625</v>
       </c>
       <c r="H106" t="n">
-        <v>-0.042205810546875</v>
+        <v>-0.126708984375</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.04888916015625</v>
+        <v>-0.136962890625</v>
       </c>
     </row>
     <row r="107">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-0.0350341796875</v>
+        <v>0.1060791015625</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.035003662109375</v>
+        <v>0.1051025390625</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.035003662109375</v>
+        <v>0.1051025390625</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.033935546875</v>
+        <v>0.10308837890625</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.036895751953125</v>
+        <v>0.10382080078125</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.036529541015625</v>
+        <v>0.100830078125</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.0357666015625</v>
+        <v>0.104736328125</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.03143310546875</v>
+        <v>0.1024169921875</v>
       </c>
     </row>
     <row r="108">
@@ -3768,28 +3768,28 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.07427978515625</v>
+        <v>0.001797676086425781</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0882568359375</v>
+        <v>0.00634002685546875</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0882568359375</v>
+        <v>0.00634002685546875</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0687255859375</v>
+        <v>0.00258636474609375</v>
       </c>
       <c r="F108" t="n">
-        <v>0.07757568359375</v>
+        <v>0.00258636474609375</v>
       </c>
       <c r="G108" t="n">
-        <v>0.08782958984375</v>
+        <v>0.007236480712890625</v>
       </c>
       <c r="H108" t="n">
-        <v>0.07330322265625</v>
+        <v>0.003955841064453125</v>
       </c>
       <c r="I108" t="n">
-        <v>0.09197998046875</v>
+        <v>0.00766754150390625</v>
       </c>
     </row>
     <row r="109">
@@ -3799,28 +3799,28 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-0.05694580078125</v>
+        <v>0.001233100891113281</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.057769775390625</v>
+        <v>0.004817962646484375</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.057769775390625</v>
+        <v>0.004817962646484375</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.05975341796875</v>
+        <v>0.0007147789001464844</v>
       </c>
       <c r="F109" t="n">
-        <v>-0.055633544921875</v>
+        <v>0.003437042236328125</v>
       </c>
       <c r="G109" t="n">
-        <v>-0.055511474609375</v>
+        <v>0.006069183349609375</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.060150146484375</v>
+        <v>9.799003601074219e-05</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.05084228515625</v>
+        <v>0.003139495849609375</v>
       </c>
     </row>
     <row r="110">
@@ -3830,28 +3830,28 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.03924560546875</v>
+        <v>0.103759765625</v>
       </c>
       <c r="C110" t="n">
-        <v>0.046295166015625</v>
+        <v>0.10308837890625</v>
       </c>
       <c r="D110" t="n">
-        <v>0.046295166015625</v>
+        <v>0.10308837890625</v>
       </c>
       <c r="E110" t="n">
-        <v>0.042938232421875</v>
+        <v>0.10540771484375</v>
       </c>
       <c r="F110" t="n">
-        <v>0.038787841796875</v>
+        <v>0.1065673828125</v>
       </c>
       <c r="G110" t="n">
-        <v>0.050689697265625</v>
+        <v>0.10638427734375</v>
       </c>
       <c r="H110" t="n">
-        <v>0.035552978515625</v>
+        <v>0.10662841796875</v>
       </c>
       <c r="I110" t="n">
-        <v>0.06689453125</v>
+        <v>0.10400390625</v>
       </c>
     </row>
     <row r="111">
@@ -3861,28 +3861,28 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.05108642578125</v>
+        <v>-0.1558837890625</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.036163330078125</v>
+        <v>-0.1485595703125</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.036163330078125</v>
+        <v>-0.1485595703125</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.048309326171875</v>
+        <v>-0.1544189453125</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.052032470703125</v>
+        <v>-0.1572265625</v>
       </c>
       <c r="G111" t="n">
-        <v>-0.05267333984375</v>
+        <v>-0.1556396484375</v>
       </c>
       <c r="H111" t="n">
-        <v>-0.049041748046875</v>
+        <v>-0.15576171875</v>
       </c>
       <c r="I111" t="n">
-        <v>-0.047576904296875</v>
+        <v>-0.1513671875</v>
       </c>
     </row>
     <row r="112">
@@ -3892,28 +3892,28 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-0.045989990234375</v>
+        <v>0.09393310546875</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.07086181640625</v>
+        <v>0.09735107421875</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.07086181640625</v>
+        <v>0.09735107421875</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.04437255859375</v>
+        <v>0.09429931640625</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.05279541015625</v>
+        <v>0.09210205078125</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.0732421875</v>
+        <v>0.09515380859375</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.04876708984375</v>
+        <v>0.09307861328125</v>
       </c>
       <c r="I112" t="n">
-        <v>-0.07342529296875</v>
+        <v>0.09320068359375</v>
       </c>
     </row>
     <row r="113">
@@ -3923,28 +3923,28 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-0.004222869873046875</v>
+        <v>0.05291748046875</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.00437164306640625</v>
+        <v>0.052825927734375</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.00437164306640625</v>
+        <v>0.052825927734375</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.006954193115234375</v>
+        <v>0.054656982421875</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.0042572021484375</v>
+        <v>0.05084228515625</v>
       </c>
       <c r="G113" t="n">
-        <v>-0.0054473876953125</v>
+        <v>0.052154541015625</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.007266998291015625</v>
+        <v>0.052459716796875</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.005664825439453125</v>
+        <v>0.0517578125</v>
       </c>
     </row>
     <row r="114">
@@ -3954,28 +3954,28 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.0399169921875</v>
+        <v>0.047027587890625</v>
       </c>
       <c r="C114" t="n">
-        <v>0.035186767578125</v>
+        <v>0.057952880859375</v>
       </c>
       <c r="D114" t="n">
-        <v>0.035186767578125</v>
+        <v>0.057952880859375</v>
       </c>
       <c r="E114" t="n">
-        <v>0.03680419921875</v>
+        <v>0.048797607421875</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0413818359375</v>
+        <v>0.046112060546875</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0450439453125</v>
+        <v>0.05181884765625</v>
       </c>
       <c r="H114" t="n">
-        <v>0.03887939453125</v>
+        <v>0.048553466796875</v>
       </c>
       <c r="I114" t="n">
-        <v>0.040618896484375</v>
+        <v>0.057464599609375</v>
       </c>
     </row>
     <row r="115">
@@ -3985,28 +3985,28 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-0.0687255859375</v>
+        <v>0.0633544921875</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.06427001953125</v>
+        <v>0.056915283203125</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.06427001953125</v>
+        <v>0.056915283203125</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.0672607421875</v>
+        <v>0.06219482421875</v>
       </c>
       <c r="F115" t="n">
-        <v>-0.0682373046875</v>
+        <v>0.06463623046875</v>
       </c>
       <c r="G115" t="n">
-        <v>-0.06915283203125</v>
+        <v>0.06304931640625</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.068359375</v>
+        <v>0.06378173828125</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.0660400390625</v>
+        <v>0.0640869140625</v>
       </c>
     </row>
     <row r="116">
@@ -4016,28 +4016,28 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-0.093994140625</v>
+        <v>-0.1448974609375</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.0869140625</v>
+        <v>-0.142333984375</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.0869140625</v>
+        <v>-0.142333984375</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.0958251953125</v>
+        <v>-0.14697265625</v>
       </c>
       <c r="F116" t="n">
-        <v>-0.0941162109375</v>
+        <v>-0.141357421875</v>
       </c>
       <c r="G116" t="n">
-        <v>-0.09222412109375</v>
+        <v>-0.1419677734375</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.0946044921875</v>
+        <v>-0.1444091796875</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.09423828125</v>
+        <v>-0.1424560546875</v>
       </c>
     </row>
     <row r="117">
@@ -4047,28 +4047,28 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.10479736328125</v>
+        <v>-0.010498046875</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0946044921875</v>
+        <v>-0.0128173828125</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0946044921875</v>
+        <v>-0.0128173828125</v>
       </c>
       <c r="E117" t="n">
-        <v>0.1044921875</v>
+        <v>-0.01094818115234375</v>
       </c>
       <c r="F117" t="n">
-        <v>0.10321044921875</v>
+        <v>-0.00881195068359375</v>
       </c>
       <c r="G117" t="n">
-        <v>0.10064697265625</v>
+        <v>-0.01161956787109375</v>
       </c>
       <c r="H117" t="n">
-        <v>0.104248046875</v>
+        <v>-0.01068878173828125</v>
       </c>
       <c r="I117" t="n">
-        <v>0.0966796875</v>
+        <v>-0.011444091796875</v>
       </c>
     </row>
     <row r="118">
@@ -4078,28 +4078,28 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-0.0296630859375</v>
+        <v>-0.2413330078125</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.0221710205078125</v>
+        <v>-0.24169921875</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.0221710205078125</v>
+        <v>-0.24169921875</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.026519775390625</v>
+        <v>-0.2423095703125</v>
       </c>
       <c r="F118" t="n">
-        <v>-0.032379150390625</v>
+        <v>-0.2423095703125</v>
       </c>
       <c r="G118" t="n">
-        <v>-0.0299530029296875</v>
+        <v>-0.2410888671875</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.0293426513671875</v>
+        <v>-0.242919921875</v>
       </c>
       <c r="I118" t="n">
-        <v>-0.02398681640625</v>
+        <v>-0.245361328125</v>
       </c>
     </row>
     <row r="119">
@@ -4109,28 +4109,28 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-0.08319091796875</v>
+        <v>-0.070068359375</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.0916748046875</v>
+        <v>-0.0772705078125</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.0916748046875</v>
+        <v>-0.0772705078125</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.0828857421875</v>
+        <v>-0.0694580078125</v>
       </c>
       <c r="F119" t="n">
-        <v>-0.08551025390625</v>
+        <v>-0.06884765625</v>
       </c>
       <c r="G119" t="n">
-        <v>-0.086669921875</v>
+        <v>-0.06817626953125</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.0845947265625</v>
+        <v>-0.069091796875</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.08868408203125</v>
+        <v>-0.0687255859375</v>
       </c>
     </row>
     <row r="120">
@@ -4140,28 +4140,28 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-0.047698974609375</v>
+        <v>-0.1363525390625</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.04949951171875</v>
+        <v>-0.14013671875</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.04949951171875</v>
+        <v>-0.14013671875</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.046051025390625</v>
+        <v>-0.135986328125</v>
       </c>
       <c r="F120" t="n">
-        <v>-0.048919677734375</v>
+        <v>-0.135498046875</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.0474853515625</v>
+        <v>-0.13720703125</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.05035400390625</v>
+        <v>-0.1365966796875</v>
       </c>
       <c r="I120" t="n">
-        <v>-0.042938232421875</v>
+        <v>-0.13671875</v>
       </c>
     </row>
     <row r="121">
@@ -4171,28 +4171,28 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-0.04254150390625</v>
+        <v>-0.11138916015625</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.028900146484375</v>
+        <v>-0.11175537109375</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.028900146484375</v>
+        <v>-0.11175537109375</v>
       </c>
       <c r="E121" t="n">
-        <v>-0.042205810546875</v>
+        <v>-0.11041259765625</v>
       </c>
       <c r="F121" t="n">
-        <v>-0.041900634765625</v>
+        <v>-0.11297607421875</v>
       </c>
       <c r="G121" t="n">
-        <v>-0.03790283203125</v>
+        <v>-0.11474609375</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.0445556640625</v>
+        <v>-0.1107177734375</v>
       </c>
       <c r="I121" t="n">
-        <v>-0.033660888671875</v>
+        <v>-0.109375</v>
       </c>
     </row>
     <row r="122">
@@ -4202,28 +4202,28 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-0.1468505859375</v>
+        <v>-0.12396240234375</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.145263671875</v>
+        <v>-0.124267578125</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.145263671875</v>
+        <v>-0.124267578125</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.1414794921875</v>
+        <v>-0.1268310546875</v>
       </c>
       <c r="F122" t="n">
-        <v>-0.1468505859375</v>
+        <v>-0.1241455078125</v>
       </c>
       <c r="G122" t="n">
-        <v>-0.1524658203125</v>
+        <v>-0.1234130859375</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.14453125</v>
+        <v>-0.1251220703125</v>
       </c>
       <c r="I122" t="n">
-        <v>-0.1519775390625</v>
+        <v>-0.12744140625</v>
       </c>
     </row>
     <row r="123">
@@ -4233,28 +4233,28 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.048095703125</v>
+        <v>-0.01143646240234375</v>
       </c>
       <c r="C123" t="n">
-        <v>0.04315185546875</v>
+        <v>-0.01085662841796875</v>
       </c>
       <c r="D123" t="n">
-        <v>0.04315185546875</v>
+        <v>-0.01085662841796875</v>
       </c>
       <c r="E123" t="n">
-        <v>0.04888916015625</v>
+        <v>-0.014434814453125</v>
       </c>
       <c r="F123" t="n">
-        <v>0.047149658203125</v>
+        <v>-0.007686614990234375</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04638671875</v>
+        <v>-0.006710052490234375</v>
       </c>
       <c r="H123" t="n">
-        <v>0.048095703125</v>
+        <v>-0.011016845703125</v>
       </c>
       <c r="I123" t="n">
-        <v>0.045684814453125</v>
+        <v>-0.009429931640625</v>
       </c>
     </row>
     <row r="124">
@@ -4264,28 +4264,28 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.004070281982421875</v>
+        <v>0.2318115234375</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0087127685546875</v>
+        <v>0.228515625</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0087127685546875</v>
+        <v>0.228515625</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0055084228515625</v>
+        <v>0.231689453125</v>
       </c>
       <c r="F124" t="n">
-        <v>0.002698898315429688</v>
+        <v>0.2305908203125</v>
       </c>
       <c r="G124" t="n">
-        <v>0.003589630126953125</v>
+        <v>0.2303466796875</v>
       </c>
       <c r="H124" t="n">
-        <v>0.00466156005859375</v>
+        <v>0.2315673828125</v>
       </c>
       <c r="I124" t="n">
-        <v>0.00785064697265625</v>
+        <v>0.2314453125</v>
       </c>
     </row>
     <row r="125">
@@ -4295,28 +4295,28 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-0.0172271728515625</v>
+        <v>0.028656005859375</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.0174102783203125</v>
+        <v>0.0237274169921875</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.0174102783203125</v>
+        <v>0.0237274169921875</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.0221405029296875</v>
+        <v>0.02764892578125</v>
       </c>
       <c r="F125" t="n">
-        <v>-0.016265869140625</v>
+        <v>0.0308837890625</v>
       </c>
       <c r="G125" t="n">
-        <v>-0.01338958740234375</v>
+        <v>0.0312347412109375</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.0181121826171875</v>
+        <v>0.02740478515625</v>
       </c>
       <c r="I125" t="n">
-        <v>-0.0203704833984375</v>
+        <v>0.03179931640625</v>
       </c>
     </row>
     <row r="126">
@@ -4326,28 +4326,28 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.023468017578125</v>
+        <v>-0.06597900390625</v>
       </c>
       <c r="C126" t="n">
-        <v>0.017608642578125</v>
+        <v>-0.06439208984375</v>
       </c>
       <c r="D126" t="n">
-        <v>0.017608642578125</v>
+        <v>-0.06439208984375</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0253753662109375</v>
+        <v>-0.06488037109375</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0234375</v>
+        <v>-0.0653076171875</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0161285400390625</v>
+        <v>-0.06695556640625</v>
       </c>
       <c r="H126" t="n">
-        <v>0.023651123046875</v>
+        <v>-0.0654296875</v>
       </c>
       <c r="I126" t="n">
-        <v>0.0170135498046875</v>
+        <v>-0.0699462890625</v>
       </c>
     </row>
     <row r="127">
@@ -4357,28 +4357,28 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-0.1165771484375</v>
+        <v>-0.25732421875</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.11016845703125</v>
+        <v>-0.2484130859375</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.11016845703125</v>
+        <v>-0.2484130859375</v>
       </c>
       <c r="E127" t="n">
-        <v>-0.11383056640625</v>
+        <v>-0.255126953125</v>
       </c>
       <c r="F127" t="n">
-        <v>-0.1175537109375</v>
+        <v>-0.255859375</v>
       </c>
       <c r="G127" t="n">
-        <v>-0.12066650390625</v>
+        <v>-0.253662109375</v>
       </c>
       <c r="H127" t="n">
-        <v>-0.11639404296875</v>
+        <v>-0.255859375</v>
       </c>
       <c r="I127" t="n">
-        <v>-0.1199951171875</v>
+        <v>-0.252685546875</v>
       </c>
     </row>
     <row r="128">
@@ -4388,28 +4388,28 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.1474609375</v>
+        <v>0.1885986328125</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1356201171875</v>
+        <v>0.170166015625</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1356201171875</v>
+        <v>0.170166015625</v>
       </c>
       <c r="E128" t="n">
-        <v>0.1494140625</v>
+        <v>0.1851806640625</v>
       </c>
       <c r="F128" t="n">
-        <v>0.1478271484375</v>
+        <v>0.190185546875</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1468505859375</v>
+        <v>0.18359375</v>
       </c>
       <c r="H128" t="n">
-        <v>0.1475830078125</v>
+        <v>0.1861572265625</v>
       </c>
       <c r="I128" t="n">
-        <v>0.14013671875</v>
+        <v>0.1756591796875</v>
       </c>
     </row>
     <row r="129">
@@ -4419,28 +4419,28 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-0.03338623046875</v>
+        <v>-0.11090087890625</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.03192138671875</v>
+        <v>-0.11822509765625</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.03192138671875</v>
+        <v>-0.11822509765625</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.037841796875</v>
+        <v>-0.11322021484375</v>
       </c>
       <c r="F129" t="n">
-        <v>-0.0321044921875</v>
+        <v>-0.1104736328125</v>
       </c>
       <c r="G129" t="n">
-        <v>-0.0285491943359375</v>
+        <v>-0.113037109375</v>
       </c>
       <c r="H129" t="n">
-        <v>-0.035369873046875</v>
+        <v>-0.11114501953125</v>
       </c>
       <c r="I129" t="n">
-        <v>-0.02972412109375</v>
+        <v>-0.11395263671875</v>
       </c>
     </row>
     <row r="130">
@@ -4450,28 +4450,28 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-0.05450439453125</v>
+        <v>0.11749267578125</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.047637939453125</v>
+        <v>0.1224365234375</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.047637939453125</v>
+        <v>0.1224365234375</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.054443359375</v>
+        <v>0.1171875</v>
       </c>
       <c r="F130" t="n">
-        <v>-0.053466796875</v>
+        <v>0.11932373046875</v>
       </c>
       <c r="G130" t="n">
-        <v>-0.05047607421875</v>
+        <v>0.11993408203125</v>
       </c>
       <c r="H130" t="n">
-        <v>-0.055389404296875</v>
+        <v>0.11773681640625</v>
       </c>
       <c r="I130" t="n">
-        <v>-0.048065185546875</v>
+        <v>0.1259765625</v>
       </c>
     </row>
     <row r="131">
@@ -4481,28 +4481,28 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.020172119140625</v>
+        <v>-0.0259246826171875</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.01534271240234375</v>
+        <v>-0.02154541015625</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.01534271240234375</v>
+        <v>-0.02154541015625</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.02056884765625</v>
+        <v>-0.024505615234375</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.0187530517578125</v>
+        <v>-0.023773193359375</v>
       </c>
       <c r="G131" t="n">
-        <v>-0.01959228515625</v>
+        <v>-0.0232391357421875</v>
       </c>
       <c r="H131" t="n">
-        <v>-0.0239105224609375</v>
+        <v>-0.0242156982421875</v>
       </c>
       <c r="I131" t="n">
-        <v>-0.01403045654296875</v>
+        <v>-0.02020263671875</v>
       </c>
     </row>
     <row r="132">
@@ -4512,28 +4512,28 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-0.09423828125</v>
+        <v>-0.169189453125</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.08453369140625</v>
+        <v>-0.1678466796875</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.08453369140625</v>
+        <v>-0.1678466796875</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.0953369140625</v>
+        <v>-0.1705322265625</v>
       </c>
       <c r="F132" t="n">
-        <v>-0.08941650390625</v>
+        <v>-0.1693115234375</v>
       </c>
       <c r="G132" t="n">
-        <v>-0.08013916015625</v>
+        <v>-0.1661376953125</v>
       </c>
       <c r="H132" t="n">
-        <v>-0.09735107421875</v>
+        <v>-0.169921875</v>
       </c>
       <c r="I132" t="n">
-        <v>-0.08123779296875</v>
+        <v>-0.16796875</v>
       </c>
     </row>
     <row r="133">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-0.007457733154296875</v>
+        <v>-0.253173828125</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.00847625732421875</v>
+        <v>-0.25927734375</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.00847625732421875</v>
+        <v>-0.25927734375</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.004547119140625</v>
+        <v>-0.25390625</v>
       </c>
       <c r="F133" t="n">
-        <v>-0.00960540771484375</v>
+        <v>-0.25146484375</v>
       </c>
       <c r="G133" t="n">
-        <v>-0.0072479248046875</v>
+        <v>-0.256103515625</v>
       </c>
       <c r="H133" t="n">
-        <v>-0.0104217529296875</v>
+        <v>-0.25439453125</v>
       </c>
       <c r="I133" t="n">
-        <v>-0.0006356239318847656</v>
+        <v>-0.259033203125</v>
       </c>
     </row>
     <row r="134">
@@ -4574,28 +4574,28 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-0.0157318115234375</v>
+        <v>0.187255859375</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.0165557861328125</v>
+        <v>0.186279296875</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.0165557861328125</v>
+        <v>0.186279296875</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.00782012939453125</v>
+        <v>0.18701171875</v>
       </c>
       <c r="F134" t="n">
-        <v>-0.014434814453125</v>
+        <v>0.1898193359375</v>
       </c>
       <c r="G134" t="n">
-        <v>-0.0186920166015625</v>
+        <v>0.1905517578125</v>
       </c>
       <c r="H134" t="n">
-        <v>-0.0125885009765625</v>
+        <v>0.186767578125</v>
       </c>
       <c r="I134" t="n">
-        <v>-0.0201873779296875</v>
+        <v>0.193603515625</v>
       </c>
     </row>
     <row r="135">
@@ -4605,28 +4605,28 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-0.007701873779296875</v>
+        <v>-0.393798828125</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.03924560546875</v>
+        <v>-0.397705078125</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.03924560546875</v>
+        <v>-0.397705078125</v>
       </c>
       <c r="E135" t="n">
-        <v>-0.006412506103515625</v>
+        <v>-0.3935546875</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.00856781005859375</v>
+        <v>-0.394287109375</v>
       </c>
       <c r="G135" t="n">
-        <v>-0.0196380615234375</v>
+        <v>-0.3994140625</v>
       </c>
       <c r="H135" t="n">
-        <v>-0.00907135009765625</v>
+        <v>-0.393798828125</v>
       </c>
       <c r="I135" t="n">
-        <v>-0.0254058837890625</v>
+        <v>-0.402099609375</v>
       </c>
     </row>
     <row r="136">
@@ -4636,28 +4636,28 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-0.0088958740234375</v>
+        <v>0.136474609375</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.0170745849609375</v>
+        <v>0.1304931640625</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.0170745849609375</v>
+        <v>0.1304931640625</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.0093841552734375</v>
+        <v>0.135498046875</v>
       </c>
       <c r="F136" t="n">
-        <v>-0.00888824462890625</v>
+        <v>0.135986328125</v>
       </c>
       <c r="G136" t="n">
-        <v>-0.009735107421875</v>
+        <v>0.133056640625</v>
       </c>
       <c r="H136" t="n">
-        <v>-0.0110321044921875</v>
+        <v>0.1368408203125</v>
       </c>
       <c r="I136" t="n">
-        <v>-0.01352691650390625</v>
+        <v>0.134521484375</v>
       </c>
     </row>
     <row r="137">
@@ -4667,28 +4667,28 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-0.08837890625</v>
+        <v>0.021331787109375</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.0791015625</v>
+        <v>0.02703857421875</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.0791015625</v>
+        <v>0.02703857421875</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.0867919921875</v>
+        <v>0.021453857421875</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.08770751953125</v>
+        <v>0.0227508544921875</v>
       </c>
       <c r="G137" t="n">
-        <v>-0.0909423828125</v>
+        <v>0.022979736328125</v>
       </c>
       <c r="H137" t="n">
-        <v>-0.0863037109375</v>
+        <v>0.0230560302734375</v>
       </c>
       <c r="I137" t="n">
-        <v>-0.08648681640625</v>
+        <v>0.025604248046875</v>
       </c>
     </row>
     <row r="138">
@@ -4698,28 +4698,28 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.002752304077148438</v>
+        <v>-0.135986328125</v>
       </c>
       <c r="C138" t="n">
-        <v>0.017242431640625</v>
+        <v>-0.13671875</v>
       </c>
       <c r="D138" t="n">
-        <v>0.017242431640625</v>
+        <v>-0.13671875</v>
       </c>
       <c r="E138" t="n">
-        <v>0.00940704345703125</v>
+        <v>-0.1343994140625</v>
       </c>
       <c r="F138" t="n">
-        <v>0.006130218505859375</v>
+        <v>-0.1363525390625</v>
       </c>
       <c r="G138" t="n">
-        <v>0.00830078125</v>
+        <v>-0.1378173828125</v>
       </c>
       <c r="H138" t="n">
-        <v>0.002534866333007812</v>
+        <v>-0.1363525390625</v>
       </c>
       <c r="I138" t="n">
-        <v>0.0144805908203125</v>
+        <v>-0.133544921875</v>
       </c>
     </row>
     <row r="139">
@@ -4729,28 +4729,28 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.049102783203125</v>
+        <v>-0.06768798828125</v>
       </c>
       <c r="C139" t="n">
-        <v>0.03973388671875</v>
+        <v>-0.060760498046875</v>
       </c>
       <c r="D139" t="n">
-        <v>0.03973388671875</v>
+        <v>-0.060760498046875</v>
       </c>
       <c r="E139" t="n">
-        <v>0.054229736328125</v>
+        <v>-0.062255859375</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0479736328125</v>
+        <v>-0.0675048828125</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0380859375</v>
+        <v>-0.06884765625</v>
       </c>
       <c r="H139" t="n">
-        <v>0.049957275390625</v>
+        <v>-0.064208984375</v>
       </c>
       <c r="I139" t="n">
-        <v>0.035247802734375</v>
+        <v>-0.0660400390625</v>
       </c>
     </row>
     <row r="140">
@@ -4760,28 +4760,28 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-0.1944580078125</v>
+        <v>-0.2142333984375</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.178955078125</v>
+        <v>-0.208984375</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.178955078125</v>
+        <v>-0.208984375</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.19873046875</v>
+        <v>-0.2147216796875</v>
       </c>
       <c r="F140" t="n">
-        <v>-0.1898193359375</v>
+        <v>-0.2108154296875</v>
       </c>
       <c r="G140" t="n">
-        <v>-0.1756591796875</v>
+        <v>-0.2110595703125</v>
       </c>
       <c r="H140" t="n">
-        <v>-0.1964111328125</v>
+        <v>-0.2139892578125</v>
       </c>
       <c r="I140" t="n">
-        <v>-0.1722412109375</v>
+        <v>-0.2135009765625</v>
       </c>
     </row>
     <row r="141">
@@ -4791,28 +4791,28 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.017059326171875</v>
+        <v>0.08502197265625</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0193634033203125</v>
+        <v>0.09246826171875</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0193634033203125</v>
+        <v>0.09246826171875</v>
       </c>
       <c r="E141" t="n">
-        <v>0.020721435546875</v>
+        <v>0.0860595703125</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0139007568359375</v>
+        <v>0.08563232421875</v>
       </c>
       <c r="G141" t="n">
-        <v>0.008453369140625</v>
+        <v>0.08868408203125</v>
       </c>
       <c r="H141" t="n">
-        <v>0.019989013671875</v>
+        <v>0.08636474609375</v>
       </c>
       <c r="I141" t="n">
-        <v>0.005573272705078125</v>
+        <v>0.09136962890625</v>
       </c>
     </row>
     <row r="142">
@@ -4822,28 +4822,28 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-0.07501220703125</v>
+        <v>-0.0673828125</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.07952880859375</v>
+        <v>-0.07110595703125</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.07952880859375</v>
+        <v>-0.07110595703125</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.07257080078125</v>
+        <v>-0.0673828125</v>
       </c>
       <c r="F142" t="n">
-        <v>-0.077392578125</v>
+        <v>-0.06591796875</v>
       </c>
       <c r="G142" t="n">
-        <v>-0.0831298828125</v>
+        <v>-0.0716552734375</v>
       </c>
       <c r="H142" t="n">
-        <v>-0.07373046875</v>
+        <v>-0.06689453125</v>
       </c>
       <c r="I142" t="n">
-        <v>-0.07623291015625</v>
+        <v>-0.0732421875</v>
       </c>
     </row>
     <row r="143">
@@ -4853,28 +4853,28 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-0.01273345947265625</v>
+        <v>0.08953857421875</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.00615692138671875</v>
+        <v>0.08697509765625</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.00615692138671875</v>
+        <v>0.08697509765625</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.01421356201171875</v>
+        <v>0.09283447265625</v>
       </c>
       <c r="F143" t="n">
-        <v>-0.0116729736328125</v>
+        <v>0.09002685546875</v>
       </c>
       <c r="G143" t="n">
-        <v>-0.0090179443359375</v>
+        <v>0.0860595703125</v>
       </c>
       <c r="H143" t="n">
-        <v>-0.01392364501953125</v>
+        <v>0.09112548828125</v>
       </c>
       <c r="I143" t="n">
-        <v>-0.00701141357421875</v>
+        <v>0.08575439453125</v>
       </c>
     </row>
     <row r="144">
@@ -4884,28 +4884,28 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.045318603515625</v>
+        <v>-0.0880126953125</v>
       </c>
       <c r="C144" t="n">
-        <v>0.045806884765625</v>
+        <v>-0.0953369140625</v>
       </c>
       <c r="D144" t="n">
-        <v>0.045806884765625</v>
+        <v>-0.0953369140625</v>
       </c>
       <c r="E144" t="n">
-        <v>0.049713134765625</v>
+        <v>-0.0908203125</v>
       </c>
       <c r="F144" t="n">
-        <v>0.04705810546875</v>
+        <v>-0.08660888671875</v>
       </c>
       <c r="G144" t="n">
-        <v>0.048736572265625</v>
+        <v>-0.09161376953125</v>
       </c>
       <c r="H144" t="n">
-        <v>0.044769287109375</v>
+        <v>-0.08856201171875</v>
       </c>
       <c r="I144" t="n">
-        <v>0.057525634765625</v>
+        <v>-0.0919189453125</v>
       </c>
     </row>
     <row r="145">
@@ -4915,28 +4915,28 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-0.210693359375</v>
+        <v>-0.0278778076171875</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.1810302734375</v>
+        <v>-0.028900146484375</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.1810302734375</v>
+        <v>-0.028900146484375</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.2122802734375</v>
+        <v>-0.0275421142578125</v>
       </c>
       <c r="F145" t="n">
-        <v>-0.213623046875</v>
+        <v>-0.0322265625</v>
       </c>
       <c r="G145" t="n">
-        <v>-0.2012939453125</v>
+        <v>-0.029296875</v>
       </c>
       <c r="H145" t="n">
-        <v>-0.21142578125</v>
+        <v>-0.026885986328125</v>
       </c>
       <c r="I145" t="n">
-        <v>-0.189208984375</v>
+        <v>-0.0228118896484375</v>
       </c>
     </row>
     <row r="146">
@@ -4946,28 +4946,28 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.033935546875</v>
+        <v>-0.137939453125</v>
       </c>
       <c r="C146" t="n">
-        <v>0.040191650390625</v>
+        <v>-0.139892578125</v>
       </c>
       <c r="D146" t="n">
-        <v>0.040191650390625</v>
+        <v>-0.139892578125</v>
       </c>
       <c r="E146" t="n">
-        <v>0.03167724609375</v>
+        <v>-0.137451171875</v>
       </c>
       <c r="F146" t="n">
-        <v>0.03533935546875</v>
+        <v>-0.138427734375</v>
       </c>
       <c r="G146" t="n">
-        <v>0.04010009765625</v>
+        <v>-0.1400146484375</v>
       </c>
       <c r="H146" t="n">
-        <v>0.033050537109375</v>
+        <v>-0.1375732421875</v>
       </c>
       <c r="I146" t="n">
-        <v>0.040557861328125</v>
+        <v>-0.1385498046875</v>
       </c>
     </row>
     <row r="147">
@@ -4977,28 +4977,28 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-0.09320068359375</v>
+        <v>-0.056884765625</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.0927734375</v>
+        <v>-0.058837890625</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.0927734375</v>
+        <v>-0.058837890625</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.0938720703125</v>
+        <v>-0.0574951171875</v>
       </c>
       <c r="F147" t="n">
-        <v>-0.0960693359375</v>
+        <v>-0.058441162109375</v>
       </c>
       <c r="G147" t="n">
-        <v>-0.095458984375</v>
+        <v>-0.058746337890625</v>
       </c>
       <c r="H147" t="n">
-        <v>-0.0933837890625</v>
+        <v>-0.058258056640625</v>
       </c>
       <c r="I147" t="n">
-        <v>-0.08831787109375</v>
+        <v>-0.054351806640625</v>
       </c>
     </row>
     <row r="148">
@@ -5008,28 +5008,28 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-0.1121826171875</v>
+        <v>0.03271484375</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.1142578125</v>
+        <v>0.0266876220703125</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.1142578125</v>
+        <v>0.0266876220703125</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.11590576171875</v>
+        <v>0.03240966796875</v>
       </c>
       <c r="F148" t="n">
-        <v>-0.10943603515625</v>
+        <v>0.035491943359375</v>
       </c>
       <c r="G148" t="n">
-        <v>-0.110107421875</v>
+        <v>0.031829833984375</v>
       </c>
       <c r="H148" t="n">
-        <v>-0.11474609375</v>
+        <v>0.032196044921875</v>
       </c>
       <c r="I148" t="n">
-        <v>-0.1190185546875</v>
+        <v>0.030731201171875</v>
       </c>
     </row>
     <row r="149">
@@ -5039,28 +5039,28 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-0.09014892578125</v>
+        <v>-0.114013671875</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.07745361328125</v>
+        <v>-0.115478515625</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.07745361328125</v>
+        <v>-0.115478515625</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.0911865234375</v>
+        <v>-0.1134033203125</v>
       </c>
       <c r="F149" t="n">
-        <v>-0.09002685546875</v>
+        <v>-0.114990234375</v>
       </c>
       <c r="G149" t="n">
-        <v>-0.0828857421875</v>
+        <v>-0.11981201171875</v>
       </c>
       <c r="H149" t="n">
-        <v>-0.0906982421875</v>
+        <v>-0.11279296875</v>
       </c>
       <c r="I149" t="n">
-        <v>-0.0772705078125</v>
+        <v>-0.11981201171875</v>
       </c>
     </row>
     <row r="150">
@@ -5070,28 +5070,28 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-0.0159759521484375</v>
+        <v>-0.2081298828125</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.0173797607421875</v>
+        <v>-0.2005615234375</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.0173797607421875</v>
+        <v>-0.2005615234375</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.0179901123046875</v>
+        <v>-0.2080078125</v>
       </c>
       <c r="F150" t="n">
-        <v>-0.01389312744140625</v>
+        <v>-0.2056884765625</v>
       </c>
       <c r="G150" t="n">
-        <v>-0.0165863037109375</v>
+        <v>-0.2044677734375</v>
       </c>
       <c r="H150" t="n">
-        <v>-0.01739501953125</v>
+        <v>-0.2091064453125</v>
       </c>
       <c r="I150" t="n">
-        <v>-0.01837158203125</v>
+        <v>-0.2052001953125</v>
       </c>
     </row>
     <row r="151">
@@ -5101,28 +5101,28 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-0.01512908935546875</v>
+        <v>-0.0860595703125</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.015960693359375</v>
+        <v>-0.080322265625</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.015960693359375</v>
+        <v>-0.080322265625</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.01221466064453125</v>
+        <v>-0.08184814453125</v>
       </c>
       <c r="F151" t="n">
-        <v>-0.0157012939453125</v>
+        <v>-0.0865478515625</v>
       </c>
       <c r="G151" t="n">
-        <v>-0.0217132568359375</v>
+        <v>-0.08331298828125</v>
       </c>
       <c r="H151" t="n">
-        <v>-0.01324462890625</v>
+        <v>-0.0848388671875</v>
       </c>
       <c r="I151" t="n">
-        <v>-0.0165863037109375</v>
+        <v>-0.07464599609375</v>
       </c>
     </row>
   </sheetData>
